--- a/Semestres/Proyectos de Inversión/Proyectos Inversion 1228.xlsx
+++ b/Semestres/Proyectos de Inversión/Proyectos Inversion 1228.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\scago\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\scago\Documents\GitHub\IA_School\Semestres\Proyectos de Inversión\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F2643482-72BE-4048-8D14-A27432040857}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FAAFE43A-6B2C-40AD-9014-25FF58C710E6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="2" xr2:uid="{C388AD20-7519-495C-B934-88533359A101}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="162" uniqueCount="116">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="276" uniqueCount="179">
   <si>
     <t>Ejercicios</t>
   </si>
@@ -445,15 +445,206 @@
   <si>
     <t xml:space="preserve"> 4-15</t>
   </si>
+  <si>
+    <t>P</t>
+  </si>
+  <si>
+    <t>n</t>
+  </si>
+  <si>
+    <t>a</t>
+  </si>
+  <si>
+    <t>f</t>
+  </si>
+  <si>
+    <t>?</t>
+  </si>
+  <si>
+    <t>p</t>
+  </si>
+  <si>
+    <t>F</t>
+  </si>
+  <si>
+    <t>x100</t>
+  </si>
+  <si>
+    <t>i=?</t>
+  </si>
+  <si>
+    <t>DATOS</t>
+  </si>
+  <si>
+    <t>Corrida</t>
+  </si>
+  <si>
+    <t>Financiera</t>
+  </si>
+  <si>
+    <t>TIR</t>
+  </si>
+  <si>
+    <t>TASA</t>
+  </si>
+  <si>
+    <t>Función travoltiana: uno abajo y otro arriba</t>
+  </si>
+  <si>
+    <t>fn+f4</t>
+  </si>
+  <si>
+    <t>Siempre</t>
+  </si>
+  <si>
+    <t>ip</t>
+  </si>
+  <si>
+    <t>r=ip*m</t>
+  </si>
+  <si>
+    <t>pagos mensuales</t>
+  </si>
+  <si>
+    <t>deducción</t>
+  </si>
+  <si>
+    <t>anual,</t>
+  </si>
+  <si>
+    <t>capitablizable mensualmente</t>
+  </si>
+  <si>
+    <t>a)</t>
+  </si>
+  <si>
+    <t>b)</t>
+  </si>
+  <si>
+    <t>tasa_nom = r</t>
+  </si>
+  <si>
+    <t>num_per_año = m</t>
+  </si>
+  <si>
+    <t>r = tasa nominal X</t>
+  </si>
+  <si>
+    <t>x10</t>
+  </si>
+  <si>
+    <t>r</t>
+  </si>
+  <si>
+    <t xml:space="preserve">anual </t>
+  </si>
+  <si>
+    <t>m =</t>
+  </si>
+  <si>
+    <t>un año por año</t>
+  </si>
+  <si>
+    <t>si m==1:</t>
+  </si>
+  <si>
+    <t>r=ief=ip</t>
+  </si>
+  <si>
+    <t xml:space="preserve">AQUÍ </t>
+  </si>
+  <si>
+    <t>Jesús María</t>
+  </si>
+  <si>
+    <t>km</t>
+  </si>
+  <si>
+    <t>trimestres</t>
+  </si>
+  <si>
+    <t>trimestral</t>
+  </si>
+  <si>
+    <t>siempre tiene nombre del periodo</t>
+  </si>
+  <si>
+    <t>F/P= VF</t>
+  </si>
+  <si>
+    <t>dif aquí vs Jesús M</t>
+  </si>
+  <si>
+    <t>kms</t>
+  </si>
+  <si>
+    <t>km/lt</t>
+  </si>
+  <si>
+    <t>litros</t>
+  </si>
+  <si>
+    <t>precio gas</t>
+  </si>
+  <si>
+    <t>ida y vuelta</t>
+  </si>
+  <si>
+    <t>m</t>
+  </si>
+  <si>
+    <t>ip=</t>
+  </si>
+  <si>
+    <t>mensuales</t>
+  </si>
+  <si>
+    <t xml:space="preserve">mensual </t>
+  </si>
+  <si>
+    <t>ANUAL</t>
+  </si>
+  <si>
+    <t>r siempre es anual, ief anual</t>
+  </si>
+  <si>
+    <t>positivo porque se lleva el coche</t>
+  </si>
+  <si>
+    <t>a=?</t>
+  </si>
+  <si>
+    <t>depositar x</t>
+  </si>
+  <si>
+    <t>semestrales</t>
+  </si>
+  <si>
+    <t>al semestre</t>
+  </si>
+  <si>
+    <t>empieza el beneficio semestral</t>
+  </si>
+  <si>
+    <t>semestres</t>
+  </si>
+  <si>
+    <t>ip= r/m</t>
+  </si>
+  <si>
+    <t>Corrida financiera</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="1">
+  <numFmts count="3">
     <numFmt numFmtId="8" formatCode="&quot;$&quot;#,##0.00;[Red]\-&quot;$&quot;#,##0.00"/>
+    <numFmt numFmtId="44" formatCode="_-&quot;$&quot;* #,##0.00_-;\-&quot;$&quot;* #,##0.00_-;_-&quot;$&quot;* &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="172" formatCode="0.0"/>
   </numFmts>
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="13" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -509,8 +700,52 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="9" tint="-0.499984740745262"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="14"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="14"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="16"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="22"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="20"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="8">
+  <fills count="12">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -553,8 +788,32 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="-0.249977111117893"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="6">
+  <borders count="21">
     <border>
       <left/>
       <right/>
@@ -631,17 +890,178 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="7" tint="-0.249977111117893"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="7" tint="-0.249977111117893"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color theme="7" tint="-0.249977111117893"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color theme="7" tint="-0.249977111117893"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="7" tint="-0.249977111117893"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color theme="7" tint="-0.249977111117893"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color theme="7" tint="-0.249977111117893"/>
+      </right>
+      <top style="thin">
+        <color theme="7" tint="-0.249977111117893"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color theme="7" tint="-0.249977111117893"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="7" tint="-0.249977111117893"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color theme="7" tint="-0.249977111117893"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color theme="7" tint="-0.249977111117893"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color theme="7" tint="-0.249977111117893"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="36">
+  <cellXfs count="92">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="4" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="8" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="8" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
     <xf numFmtId="8" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1"/>
@@ -654,13 +1074,11 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="8" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="8" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="8" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -689,8 +1107,126 @@
     <xf numFmtId="8" fontId="0" fillId="7" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" xfId="2" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="10" fontId="8" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="10" fontId="8" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="9" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="8" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="8" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="8" fontId="11" fillId="10" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="8" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="44" fontId="0" fillId="9" borderId="0" xfId="2" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="10" fontId="10" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="16" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="16" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="10" fontId="0" fillId="11" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="17" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="10" fontId="0" fillId="11" borderId="18" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="19" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="10" fontId="0" fillId="11" borderId="20" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="172" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="172" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="8" fontId="12" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
   </cellXfs>
-  <cellStyles count="2">
+  <cellStyles count="3">
+    <cellStyle name="Moneda" xfId="2" builtinId="4"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Porcentaje" xfId="1" builtinId="5"/>
   </cellStyles>
@@ -766,8 +1302,8 @@
       <xdr:row>94</xdr:row>
       <xdr:rowOff>57740</xdr:rowOff>
     </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing">
+      <mc:Choice Requires="xdr14">
         <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2">
           <xdr14:nvContentPartPr>
             <xdr14:cNvPr id="9" name="Entrada de lápiz 8">
@@ -786,7 +1322,7 @@
           </xdr14:xfrm>
         </xdr:contentPart>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:pic>
           <xdr:nvPicPr>
             <xdr:cNvPr id="9" name="Entrada de lápiz 8">
@@ -831,8 +1367,8 @@
       <xdr:row>95</xdr:row>
       <xdr:rowOff>106610</xdr:rowOff>
     </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing">
+      <mc:Choice Requires="xdr14">
         <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId4">
           <xdr14:nvContentPartPr>
             <xdr14:cNvPr id="12" name="Entrada de lápiz 11">
@@ -851,7 +1387,7 @@
           </xdr14:xfrm>
         </xdr:contentPart>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:pic>
           <xdr:nvPicPr>
             <xdr:cNvPr id="12" name="Entrada de lápiz 11">
@@ -984,8 +1520,8 @@
       <xdr:row>120</xdr:row>
       <xdr:rowOff>177740</xdr:rowOff>
     </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing">
+      <mc:Choice Requires="xdr14">
         <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId8">
           <xdr14:nvContentPartPr>
             <xdr14:cNvPr id="22" name="Entrada de lápiz 21">
@@ -1004,7 +1540,7 @@
           </xdr14:xfrm>
         </xdr:contentPart>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:pic>
           <xdr:nvPicPr>
             <xdr:cNvPr id="22" name="Entrada de lápiz 21">
@@ -1124,6 +1660,488 @@
     </xdr:pic>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>1</xdr:colOff>
+      <xdr:row>174</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>495301</xdr:colOff>
+      <xdr:row>181</xdr:row>
+      <xdr:rowOff>42895</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="4" name="Imagen 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9A1D4BB2-02AD-EBF7-FE5B-B75BB8F1DF9B}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId12"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2194561" y="32080200"/>
+          <a:ext cx="3360420" cy="1323055"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>640080</xdr:colOff>
+      <xdr:row>196</xdr:row>
+      <xdr:rowOff>175260</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>519282</xdr:colOff>
+      <xdr:row>201</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="5" name="Imagen 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CB0FB493-2923-E2B1-812F-C3A770E69AA7}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId13"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1318260" y="36278820"/>
+          <a:ext cx="5236062" cy="784860"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>1</xdr:colOff>
+      <xdr:row>211</xdr:row>
+      <xdr:rowOff>1</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>198121</xdr:colOff>
+      <xdr:row>214</xdr:row>
+      <xdr:rowOff>48963</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="6" name="Imagen 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BE5105DF-E5D1-884C-8276-16C2E0DECF6A}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId14"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1341121" y="38846761"/>
+          <a:ext cx="4892040" cy="780482"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>312420</xdr:colOff>
+      <xdr:row>214</xdr:row>
+      <xdr:rowOff>167640</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>160020</xdr:colOff>
+      <xdr:row>218</xdr:row>
+      <xdr:rowOff>88308</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="7" name="Imagen 6">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{21465BA0-8D4B-16AE-E958-65F0AEB8CFC3}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId15"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1653540" y="39563040"/>
+          <a:ext cx="4541520" cy="667428"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>510540</xdr:colOff>
+      <xdr:row>223</xdr:row>
+      <xdr:rowOff>83820</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>361668</xdr:colOff>
+      <xdr:row>227</xdr:row>
+      <xdr:rowOff>60960</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="8" name="Imagen 7">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4286ABE6-FFC9-4661-4D7D-28B504EF9380}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId16"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1188720" y="41140380"/>
+          <a:ext cx="5207988" cy="731520"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>495840</xdr:colOff>
+      <xdr:row>236</xdr:row>
+      <xdr:rowOff>30360</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>622560</xdr:colOff>
+      <xdr:row>238</xdr:row>
+      <xdr:rowOff>17040</xdr:rowOff>
+    </xdr:to>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
+        <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId17">
+          <xdr14:nvContentPartPr>
+            <xdr14:cNvPr id="13" name="Entrada de lápiz 12">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F41D18F5-C9A8-6F31-600E-71B7BB892394}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr14:cNvPr>
+            <xdr14:cNvContentPartPr/>
+          </xdr14:nvContentPartPr>
+          <xdr14:nvPr macro=""/>
+          <xdr14:xfrm>
+            <a:off x="7856760" y="43540560"/>
+            <a:ext cx="126720" cy="352440"/>
+          </xdr14:xfrm>
+        </xdr:contentPart>
+      </mc:Choice>
+      <mc:Fallback>
+        <xdr:pic>
+          <xdr:nvPicPr>
+            <xdr:cNvPr id="13" name="Entrada de lápiz 12">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F41D18F5-C9A8-6F31-600E-71B7BB892394}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvPicPr/>
+          </xdr:nvPicPr>
+          <xdr:blipFill>
+            <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId18"/>
+            <a:stretch>
+              <a:fillRect/>
+            </a:stretch>
+          </xdr:blipFill>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="7848120" y="43531560"/>
+              <a:ext cx="144360" cy="370080"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+          </xdr:spPr>
+        </xdr:pic>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>319860</xdr:colOff>
+      <xdr:row>216</xdr:row>
+      <xdr:rowOff>29760</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>14520</xdr:colOff>
+      <xdr:row>216</xdr:row>
+      <xdr:rowOff>38400</xdr:rowOff>
+    </xdr:to>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
+        <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId19">
+          <xdr14:nvContentPartPr>
+            <xdr14:cNvPr id="14" name="Entrada de lápiz 13">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{67C99C22-7E24-1CC2-ABB4-657B559A7957}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr14:cNvPr>
+            <xdr14:cNvContentPartPr/>
+          </xdr14:nvContentPartPr>
+          <xdr14:nvPr macro=""/>
+          <xdr14:xfrm>
+            <a:off x="3863160" y="39821400"/>
+            <a:ext cx="479520" cy="8640"/>
+          </xdr14:xfrm>
+        </xdr:contentPart>
+      </mc:Choice>
+      <mc:Fallback>
+        <xdr:pic>
+          <xdr:nvPicPr>
+            <xdr:cNvPr id="14" name="Entrada de lápiz 13">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{67C99C22-7E24-1CC2-ABB4-657B559A7957}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvPicPr/>
+          </xdr:nvPicPr>
+          <xdr:blipFill>
+            <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId20"/>
+            <a:stretch>
+              <a:fillRect/>
+            </a:stretch>
+          </xdr:blipFill>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="3809520" y="39713400"/>
+              <a:ext cx="587160" cy="224280"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+          </xdr:spPr>
+        </xdr:pic>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>7621</xdr:colOff>
+      <xdr:row>255</xdr:row>
+      <xdr:rowOff>22860</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>845821</xdr:colOff>
+      <xdr:row>258</xdr:row>
+      <xdr:rowOff>180815</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="17" name="Imagen 16">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F7F542B4-15FE-BE6B-F4B2-687B61D70C4C}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId21"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7621" y="47343060"/>
+          <a:ext cx="5897880" cy="805655"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>265</xdr:row>
+      <xdr:rowOff>7621</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>960120</xdr:colOff>
+      <xdr:row>268</xdr:row>
+      <xdr:rowOff>56869</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="18" name="Imagen 17">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{986995BC-F71E-5F4E-2B53-397EF0DC1C06}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId22"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="49286161"/>
+          <a:ext cx="6019800" cy="613128"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>1</xdr:colOff>
+      <xdr:row>274</xdr:row>
+      <xdr:rowOff>7620</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>15241</xdr:colOff>
+      <xdr:row>277</xdr:row>
+      <xdr:rowOff>120031</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="19" name="Imagen 18">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7B173A03-1F9F-9553-2D69-F8CAC860A55C}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId23"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1" y="50947320"/>
+          <a:ext cx="6050280" cy="827603"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -1181,7 +2199,7 @@
     </inkml:brush>
   </inkml:definitions>
   <inkml:trace contextRef="#ctx0" brushRef="#br0">830 0 24575,'-6'1'0,"1"0"0,0 1 0,0-1 0,0 1 0,0 0 0,1 0 0,-1 1 0,0-1 0,-6 6 0,-3 1 0,-49 29 0,-92 77 0,68-48 0,-10 12 0,-104 108 0,157-144 0,25-25-682,-34 26-1,42-37-6143</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="1135.68">0 36 24575,'6'1'0,"-1"0"0,0 0 0,1 0 0,-1 0 0,0 1 0,0 0 0,0 0 0,0 0 0,-1 1 0,1 0 0,0-1 0,-1 2 0,0-1 0,7 7 0,7 8 0,29 38 0,-28-32 0,60 62 0,171 145 0,-241-224 0,1 0 0,0-1 0,16 8 0,2 1 0,-25-12 0,1 1 0,0-1 0,-1 1 0,0 0 0,1 0 0,-2 0 0,1 0 0,0 1 0,-1-1 0,4 10 0,13 21 0,-12-26-136,0 1-1,1-2 1,0 1-1,0-1 1,1 0-1,0-1 1,0 0-1,1-1 0,18 10 1,-18-11-6690</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="1135.66">0 36 24575,'6'1'0,"-1"0"0,0 0 0,1 0 0,-1 0 0,0 1 0,0 0 0,0 0 0,0 0 0,-1 1 0,1 0 0,0-1 0,-1 2 0,0-1 0,7 7 0,7 8 0,29 38 0,-28-32 0,60 62 0,171 145 0,-241-224 0,1 0 0,0-1 0,16 8 0,2 1 0,-25-12 0,1 1 0,0-1 0,-1 1 0,0 0 0,1 0 0,-2 0 0,1 0 0,0 1 0,-1-1 0,4 10 0,13 21 0,-12-26-136,0 1-1,1-2 1,0 1-1,0-1 1,1 0-1,0-1 1,0 0-1,1-1 0,18 10 1,-18-11-6690</inkml:trace>
 </inkml:ink>
 </file>
 
@@ -1211,6 +2229,62 @@
     </inkml:brush>
   </inkml:definitions>
   <inkml:trace contextRef="#ctx0" brushRef="#br0">1 1,'2346'0,"-2330"0</inkml:trace>
+</inkml:ink>
+</file>
+
+<file path=xl/ink/ink4.xml><?xml version="1.0" encoding="utf-8"?>
+<inkml:ink xmlns:inkml="http://www.w3.org/2003/InkML">
+  <inkml:definitions>
+    <inkml:context xml:id="ctx0">
+      <inkml:inkSource xml:id="inkSrc0">
+        <inkml:traceFormat>
+          <inkml:channel name="X" type="integer" min="-2.14748E9" max="2.14748E9" units="cm"/>
+          <inkml:channel name="Y" type="integer" min="-2.14748E9" max="2.14748E9" units="cm"/>
+          <inkml:channel name="F" type="integer" max="32767" units="dev"/>
+        </inkml:traceFormat>
+        <inkml:channelProperties>
+          <inkml:channelProperty channel="X" name="resolution" value="1000" units="1/cm"/>
+          <inkml:channelProperty channel="Y" name="resolution" value="1000" units="1/cm"/>
+          <inkml:channelProperty channel="F" name="resolution" value="0" units="1/dev"/>
+        </inkml:channelProperties>
+      </inkml:inkSource>
+      <inkml:timestamp xml:id="ts0" timeString="2022-09-07T22:28:17.357"/>
+    </inkml:context>
+    <inkml:brush xml:id="br0">
+      <inkml:brushProperty name="width" value="0.05" units="cm"/>
+      <inkml:brushProperty name="height" value="0.05" units="cm"/>
+    </inkml:brush>
+  </inkml:definitions>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0">63 1 24575,'44'16'0,"-33"-12"0,1 0 0,-1 0 0,0 1 0,0 1 0,-1 0 0,1 0 0,-1 1 0,-1 0 0,1 0 0,-1 1 0,-1 1 0,1 0 0,11 15 0,-17-17 0,0-1 0,-1 0 0,1 1 0,-1-1 0,-1 1 0,1 0 0,-1 0 0,0-1 0,0 1 0,-1 0 0,0 0 0,0 0 0,-1 0 0,0 0 0,0-1 0,-1 1 0,1 0 0,-1-1 0,-1 1 0,1-1 0,-1 1 0,-1-1 0,1 0 0,-1-1 0,0 1 0,-5 5 0,6-8 0,0 1 0,-1-1 0,2 1 0,-1-1 0,0 1 0,1 0 0,-1 0 0,1 0 0,0 0 0,1 1 0,-1-1 0,-1 7 0,3-8 0,0 0 0,0 1 0,0-1 0,1 0 0,-1 0 0,1 0 0,0 0 0,0 0 0,0 0 0,0 0 0,0 0 0,1-1 0,-1 1 0,1 0 0,0-1 0,0 1 0,0-1 0,0 0 0,2 3 0,4 4 0,1 1 0,0-1 0,0-1 0,1 0 0,-1 0 0,2-1 0,-1 0 0,1-1 0,0 0 0,15 6 0,-33-14 0,1 1 0,-1 0 0,0 1 0,0 0 0,1 0 0,-1 0 0,0 1 0,0 0 0,1 0 0,-1 1 0,1 0 0,-1 0 0,1 0 0,0 1 0,-1 0 0,1 0 0,1 1 0,-1 0 0,1 0 0,-1 0 0,1 0 0,0 1 0,0 0 0,1 0 0,0 0 0,0 1 0,0-1 0,0 1 0,1 0 0,0 0 0,-4 11 0,4 6 0,0-1 0,1 1 0,2 0 0,0 0 0,6 35 0,-4-46 0,1-1 0,0 0 0,7 16 0,-6-19 0,-1-1 0,0 1 0,-1 0 0,0 1 0,0-1 0,0 0 0,0 13 0,-3-19 0,1 0 0,0 0 0,0 0 0,-1 0 0,0 0 0,1 0 0,-1 0 0,0-1 0,0 1 0,0 0 0,0 0 0,0-1 0,0 1 0,-3 2 0,1-1 0,0-1 0,0 0 0,0 0 0,0 0 0,-1 0 0,1-1 0,-1 1 0,1-1 0,-1 0 0,-5 1 0,-8 1-58,-1-1-1,0-1 1,1-1-1,-20-1 1,14 0-1015,4 0-5753</inkml:trace>
+</inkml:ink>
+</file>
+
+<file path=xl/ink/ink5.xml><?xml version="1.0" encoding="utf-8"?>
+<inkml:ink xmlns:inkml="http://www.w3.org/2003/InkML">
+  <inkml:definitions>
+    <inkml:context xml:id="ctx0">
+      <inkml:inkSource xml:id="inkSrc0">
+        <inkml:traceFormat>
+          <inkml:channel name="X" type="integer" min="-2.14748E9" max="2.14748E9" units="cm"/>
+          <inkml:channel name="Y" type="integer" min="-2.14748E9" max="2.14748E9" units="cm"/>
+        </inkml:traceFormat>
+        <inkml:channelProperties>
+          <inkml:channelProperty channel="X" name="resolution" value="1000" units="1/cm"/>
+          <inkml:channelProperty channel="Y" name="resolution" value="1000" units="1/cm"/>
+        </inkml:channelProperties>
+      </inkml:inkSource>
+      <inkml:timestamp xml:id="ts0" timeString="2022-09-07T22:54:26.386"/>
+    </inkml:context>
+    <inkml:brush xml:id="br0">
+      <inkml:brushProperty name="width" value="0.3" units="cm"/>
+      <inkml:brushProperty name="height" value="0.6" units="cm"/>
+      <inkml:brushProperty name="color" value="#FFFC00"/>
+      <inkml:brushProperty name="tip" value="rectangle"/>
+      <inkml:brushProperty name="rasterOp" value="maskPen"/>
+      <inkml:brushProperty name="ignorePressure" value="1"/>
+    </inkml:brush>
+  </inkml:definitions>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0">1 24,'71'0,"102"-13,-90 5,161 5,-119 6,492-3,-599 0</inkml:trace>
 </inkml:ink>
 </file>
 
@@ -1535,10 +2609,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{436C86D1-4AF5-4366-94BB-1C393905B18C}">
-  <dimension ref="A1:T178"/>
+  <dimension ref="A1:X326"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="J139" sqref="J139"/>
+    <sheetView tabSelected="1" topLeftCell="A267" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="N276" sqref="N276"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1551,13 +2625,19 @@
     <col min="6" max="6" width="11.44140625" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="10.6640625" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="14.21875" customWidth="1"/>
-    <col min="9" max="10" width="9.6640625" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="8.88671875" customWidth="1"/>
-    <col min="13" max="13" width="10.6640625" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="10.109375" customWidth="1"/>
-    <col min="18" max="18" width="9.6640625" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="9.88671875" customWidth="1"/>
-    <col min="20" max="20" width="9.6640625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="9.6640625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="10.33203125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="13.77734375" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="13.33203125" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="9.88671875" customWidth="1"/>
+    <col min="14" max="14" width="22.44140625" customWidth="1"/>
+    <col min="15" max="15" width="10.6640625" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="13" customWidth="1"/>
+    <col min="17" max="17" width="10.5546875" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="13.77734375" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="9.6640625" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="9.88671875" customWidth="1"/>
+    <col min="24" max="24" width="9.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.3">
@@ -1584,7 +2664,7 @@
       <c r="D5" t="s">
         <v>11</v>
       </c>
-      <c r="E5" s="4">
+      <c r="E5" s="3">
         <v>0.06</v>
       </c>
     </row>
@@ -1597,11 +2677,11 @@
       </c>
     </row>
     <row r="7" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B7" s="6">
+      <c r="B7" s="5">
         <v>0</v>
       </c>
-      <c r="C7" s="6"/>
-      <c r="E7" s="8" t="s">
+      <c r="C7" s="5"/>
+      <c r="E7" s="7" t="s">
         <v>9</v>
       </c>
       <c r="F7" t="s">
@@ -1609,87 +2689,87 @@
       </c>
     </row>
     <row r="8" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B8" s="6">
+      <c r="B8" s="5">
         <v>1</v>
       </c>
-      <c r="C8" s="7">
+      <c r="C8" s="6">
         <v>-10000</v>
       </c>
-      <c r="E8" s="9">
+      <c r="E8" s="8">
         <f>FV(E5,B15,C8)</f>
         <v>98974.679088473727</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="B9" s="6">
+      <c r="B9" s="5">
         <v>2</v>
       </c>
-      <c r="C9" s="7">
+      <c r="C9" s="6">
         <v>-10000</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="B10" s="6">
+      <c r="B10" s="5">
         <v>3</v>
       </c>
-      <c r="C10" s="7">
+      <c r="C10" s="6">
         <v>-10000</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="B11" s="6">
+      <c r="B11" s="5">
         <v>4</v>
       </c>
-      <c r="C11" s="7">
+      <c r="C11" s="6">
         <v>-10000</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="B12" s="6">
+      <c r="B12" s="5">
         <v>5</v>
       </c>
-      <c r="C12" s="7">
+      <c r="C12" s="6">
         <v>-10000</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="B13" s="6">
+      <c r="B13" s="5">
         <v>6</v>
       </c>
-      <c r="C13" s="7">
+      <c r="C13" s="6">
         <v>-10000</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="B14" s="6">
+      <c r="B14" s="5">
         <v>7</v>
       </c>
-      <c r="C14" s="7">
+      <c r="C14" s="6">
         <v>-10000</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="B15" s="6">
+      <c r="B15" s="5">
         <v>8</v>
       </c>
-      <c r="C15" s="7">
+      <c r="C15" s="6">
         <v>-10000</v>
       </c>
       <c r="D15" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="17" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="18" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="20" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:15" x14ac:dyDescent="0.3">
       <c r="E20" t="s">
         <v>15</v>
       </c>
@@ -1697,7 +2777,7 @@
         <v>7.0000000000000007E-2</v>
       </c>
     </row>
-    <row r="21" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:15" x14ac:dyDescent="0.3">
       <c r="B21" t="s">
         <v>6</v>
       </c>
@@ -1705,7 +2785,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="22" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:15" x14ac:dyDescent="0.3">
       <c r="B22">
         <v>0</v>
       </c>
@@ -1716,30 +2796,30 @@
         <v>17</v>
       </c>
     </row>
-    <row r="23" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:15" x14ac:dyDescent="0.3">
       <c r="B23">
         <v>1</v>
       </c>
-      <c r="C23" s="7">
+      <c r="C23" s="6">
         <v>6000</v>
       </c>
       <c r="E23" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="24" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:15" x14ac:dyDescent="0.3">
       <c r="B24">
         <v>2</v>
       </c>
-      <c r="C24" s="7">
+      <c r="C24" s="6">
         <v>6000</v>
       </c>
     </row>
-    <row r="25" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B25">
         <v>3</v>
       </c>
-      <c r="C25" s="7">
+      <c r="C25" s="6">
         <v>6000</v>
       </c>
       <c r="F25" t="s">
@@ -1749,11 +2829,11 @@
         <v>22</v>
       </c>
     </row>
-    <row r="26" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B26">
         <v>4</v>
       </c>
-      <c r="C26" s="7">
+      <c r="C26" s="6">
         <v>6000</v>
       </c>
       <c r="E26" t="s">
@@ -1765,7 +2845,7 @@
       <c r="G26" t="s">
         <v>24</v>
       </c>
-      <c r="H26" s="5">
+      <c r="H26" s="4">
         <f>PV(F20,B31,C23)</f>
         <v>-39091.393492787312</v>
       </c>
@@ -1773,11 +2853,11 @@
         <v>26</v>
       </c>
     </row>
-    <row r="27" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B27">
         <v>5</v>
       </c>
-      <c r="C27" s="7">
+      <c r="C27" s="6">
         <v>6000</v>
       </c>
       <c r="E27" t="s">
@@ -1789,7 +2869,7 @@
       <c r="G27" t="s">
         <v>20</v>
       </c>
-      <c r="H27" s="5">
+      <c r="H27" s="4">
         <f>NPV(F20,C23:C31)</f>
         <v>39091.393492787291</v>
       </c>
@@ -1802,40 +2882,40 @@
       <c r="L27" t="s">
         <v>29</v>
       </c>
-      <c r="M27" s="2">
+      <c r="O27" s="2">
         <f>-H27</f>
         <v>-39091.393492787291</v>
       </c>
     </row>
-    <row r="28" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:15" x14ac:dyDescent="0.3">
       <c r="B28">
         <v>6</v>
       </c>
-      <c r="C28" s="7">
+      <c r="C28" s="6">
         <v>6000</v>
       </c>
     </row>
-    <row r="29" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:15" x14ac:dyDescent="0.3">
       <c r="B29">
         <v>7</v>
       </c>
-      <c r="C29" s="7">
+      <c r="C29" s="6">
         <v>6000</v>
       </c>
     </row>
-    <row r="30" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:15" x14ac:dyDescent="0.3">
       <c r="B30">
         <v>8</v>
       </c>
-      <c r="C30" s="7">
+      <c r="C30" s="6">
         <v>6000</v>
       </c>
     </row>
-    <row r="31" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:15" x14ac:dyDescent="0.3">
       <c r="B31">
         <v>9</v>
       </c>
-      <c r="C31" s="7">
+      <c r="C31" s="6">
         <v>6000</v>
       </c>
     </row>
@@ -1882,10 +2962,10 @@
       </c>
     </row>
     <row r="40" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="B40" s="6">
+      <c r="B40" s="5">
         <v>0</v>
       </c>
-      <c r="C40" s="7">
+      <c r="C40" s="6">
         <v>-50000</v>
       </c>
       <c r="F40" t="s">
@@ -1896,10 +2976,10 @@
       </c>
     </row>
     <row r="41" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="B41" s="6">
+      <c r="B41" s="5">
         <v>1</v>
       </c>
-      <c r="C41" s="7">
+      <c r="C41" s="6">
         <v>0</v>
       </c>
       <c r="F41" t="s">
@@ -1910,18 +2990,18 @@
       </c>
     </row>
     <row r="42" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B42" s="6">
+      <c r="B42" s="5">
         <v>2</v>
       </c>
-      <c r="C42" s="7">
+      <c r="C42" s="6">
         <v>0</v>
       </c>
     </row>
     <row r="43" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B43" s="6">
+      <c r="B43" s="5">
         <v>3</v>
       </c>
-      <c r="C43" s="7" t="s">
+      <c r="C43" s="6" t="s">
         <v>32</v>
       </c>
       <c r="D43">
@@ -1933,7 +3013,7 @@
       <c r="G43" t="s">
         <v>38</v>
       </c>
-      <c r="H43" s="5">
+      <c r="H43" s="4">
         <f>-FV(D37,B42,C42,C40)</f>
         <v>-55125</v>
       </c>
@@ -1945,10 +3025,10 @@
       </c>
     </row>
     <row r="44" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="B44" s="6">
+      <c r="B44" s="5">
         <v>4</v>
       </c>
-      <c r="C44" s="7" t="s">
+      <c r="C44" s="6" t="s">
         <v>32</v>
       </c>
       <c r="D44">
@@ -1959,10 +3039,10 @@
       </c>
     </row>
     <row r="45" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B45" s="6">
+      <c r="B45" s="5">
         <v>5</v>
       </c>
-      <c r="C45" s="7" t="s">
+      <c r="C45" s="6" t="s">
         <v>32</v>
       </c>
       <c r="D45">
@@ -1970,10 +3050,10 @@
       </c>
     </row>
     <row r="46" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B46" s="6">
+      <c r="B46" s="5">
         <v>6</v>
       </c>
-      <c r="C46" s="7" t="s">
+      <c r="C46" s="6" t="s">
         <v>32</v>
       </c>
       <c r="D46">
@@ -1985,7 +3065,7 @@
       <c r="G46" t="s">
         <v>34</v>
       </c>
-      <c r="H46" s="5">
+      <c r="H46" s="4">
         <f>PMT(D37,D57,H43)</f>
         <v>5310.8686044595961</v>
       </c>
@@ -1994,10 +3074,10 @@
       </c>
     </row>
     <row r="47" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="B47" s="6">
+      <c r="B47" s="5">
         <v>7</v>
       </c>
-      <c r="C47" s="7" t="s">
+      <c r="C47" s="6" t="s">
         <v>32</v>
       </c>
       <c r="D47">
@@ -2005,10 +3085,10 @@
       </c>
     </row>
     <row r="48" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="B48" s="6">
+      <c r="B48" s="5">
         <v>8</v>
       </c>
-      <c r="C48" s="7" t="s">
+      <c r="C48" s="6" t="s">
         <v>32</v>
       </c>
       <c r="D48">
@@ -2016,10 +3096,10 @@
       </c>
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="B49" s="6">
+      <c r="B49" s="5">
         <v>9</v>
       </c>
-      <c r="C49" s="7" t="s">
+      <c r="C49" s="6" t="s">
         <v>32</v>
       </c>
       <c r="D49">
@@ -2027,10 +3107,10 @@
       </c>
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="B50" s="6">
+      <c r="B50" s="5">
         <v>10</v>
       </c>
-      <c r="C50" s="7" t="s">
+      <c r="C50" s="6" t="s">
         <v>32</v>
       </c>
       <c r="D50">
@@ -2038,10 +3118,10 @@
       </c>
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="B51" s="6">
+      <c r="B51" s="5">
         <v>11</v>
       </c>
-      <c r="C51" s="7" t="s">
+      <c r="C51" s="6" t="s">
         <v>32</v>
       </c>
       <c r="D51">
@@ -2049,10 +3129,10 @@
       </c>
     </row>
     <row r="52" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="B52" s="6">
+      <c r="B52" s="5">
         <v>12</v>
       </c>
-      <c r="C52" s="7" t="s">
+      <c r="C52" s="6" t="s">
         <v>32</v>
       </c>
       <c r="D52">
@@ -2060,10 +3140,10 @@
       </c>
     </row>
     <row r="53" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="B53" s="6">
+      <c r="B53" s="5">
         <v>13</v>
       </c>
-      <c r="C53" s="7" t="s">
+      <c r="C53" s="6" t="s">
         <v>32</v>
       </c>
       <c r="D53">
@@ -2071,10 +3151,10 @@
       </c>
     </row>
     <row r="54" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="B54" s="6">
+      <c r="B54" s="5">
         <v>14</v>
       </c>
-      <c r="C54" s="7" t="s">
+      <c r="C54" s="6" t="s">
         <v>32</v>
       </c>
       <c r="D54">
@@ -2082,10 +3162,10 @@
       </c>
     </row>
     <row r="55" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="B55" s="6">
+      <c r="B55" s="5">
         <v>15</v>
       </c>
-      <c r="C55" s="7" t="s">
+      <c r="C55" s="6" t="s">
         <v>32</v>
       </c>
       <c r="D55">
@@ -2093,10 +3173,10 @@
       </c>
     </row>
     <row r="56" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="B56" s="6">
+      <c r="B56" s="5">
         <v>16</v>
       </c>
-      <c r="C56" s="7" t="s">
+      <c r="C56" s="6" t="s">
         <v>32</v>
       </c>
       <c r="D56">
@@ -2104,10 +3184,10 @@
       </c>
     </row>
     <row r="57" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="B57" s="6">
+      <c r="B57" s="5">
         <v>17</v>
       </c>
-      <c r="C57" s="7" t="s">
+      <c r="C57" s="6" t="s">
         <v>32</v>
       </c>
       <c r="D57">
@@ -2115,10 +3195,10 @@
       </c>
     </row>
     <row r="58" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="B58" s="6">
+      <c r="B58" s="5">
         <v>18</v>
       </c>
-      <c r="C58" s="7" t="s">
+      <c r="C58" s="6" t="s">
         <v>32</v>
       </c>
       <c r="D58" t="s">
@@ -2141,13 +3221,13 @@
       </c>
     </row>
     <row r="66" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B66" s="10" t="s">
+      <c r="B66" s="9" t="s">
         <v>48</v>
       </c>
-      <c r="C66" s="11">
+      <c r="C66" s="10">
         <v>0.05</v>
       </c>
-      <c r="D66" s="10" t="s">
+      <c r="D66" s="9" t="s">
         <v>49</v>
       </c>
     </row>
@@ -2163,10 +3243,10 @@
       </c>
     </row>
     <row r="68" spans="2:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B68" s="6">
+      <c r="B68" s="5">
         <v>0</v>
       </c>
-      <c r="C68" s="7">
+      <c r="C68" s="6">
         <v>-6000</v>
       </c>
       <c r="E68" t="s">
@@ -2180,34 +3260,34 @@
       </c>
     </row>
     <row r="69" spans="2:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B69" s="6">
+      <c r="B69" s="5">
         <v>1</v>
       </c>
-      <c r="C69" s="7">
+      <c r="C69" s="6">
         <v>0</v>
       </c>
-      <c r="F69" s="5">
+      <c r="F69" s="4">
         <f>NPV(C66,C69:C77)</f>
         <v>-11269.90799747748</v>
       </c>
-      <c r="G69" s="5">
+      <c r="G69" s="4">
         <f>+F69+C68</f>
         <v>-17269.90799747748</v>
       </c>
     </row>
     <row r="70" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B70" s="6">
+      <c r="B70" s="5">
         <v>2</v>
       </c>
-      <c r="C70" s="7">
+      <c r="C70" s="6">
         <v>-3000</v>
       </c>
     </row>
     <row r="71" spans="2:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B71" s="6">
+      <c r="B71" s="5">
         <v>3</v>
       </c>
-      <c r="C71" s="7">
+      <c r="C71" s="6">
         <v>0</v>
       </c>
       <c r="E71" t="s">
@@ -2218,83 +3298,83 @@
       </c>
     </row>
     <row r="72" spans="2:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B72" s="6">
+      <c r="B72" s="5">
         <v>4</v>
       </c>
-      <c r="C72" s="7">
+      <c r="C72" s="6">
         <v>0</v>
       </c>
-      <c r="F72" s="5">
+      <c r="F72" s="4">
         <f>FV(C66,B78,C69,G69)</f>
         <v>28130.860342031832</v>
       </c>
     </row>
     <row r="73" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B73" s="6">
+      <c r="B73" s="5">
         <v>5</v>
       </c>
-      <c r="C73" s="7">
+      <c r="C73" s="6">
         <v>-4000</v>
       </c>
     </row>
     <row r="74" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B74" s="6">
+      <c r="B74" s="5">
         <v>6</v>
       </c>
-      <c r="C74" s="7">
+      <c r="C74" s="6">
         <v>0</v>
       </c>
     </row>
     <row r="75" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B75" s="6">
+      <c r="B75" s="5">
         <v>7</v>
       </c>
-      <c r="C75" s="7">
+      <c r="C75" s="6">
         <v>0</v>
       </c>
       <c r="E75" t="s">
         <v>54</v>
       </c>
-      <c r="F75" s="7">
+      <c r="F75" s="6">
         <f>FV(C66,B78,C69,C68)</f>
         <v>9773.3677606646488</v>
       </c>
     </row>
     <row r="76" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B76" s="6">
+      <c r="B76" s="5">
         <v>8</v>
       </c>
-      <c r="C76" s="7">
+      <c r="C76" s="6">
         <v>-8000</v>
       </c>
       <c r="E76" t="s">
         <v>55</v>
       </c>
-      <c r="F76" s="7">
+      <c r="F76" s="6">
         <f>FV(C66,8,C75,C70)</f>
         <v>4432.3663313671877</v>
       </c>
     </row>
     <row r="77" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B77" s="6">
+      <c r="B77" s="5">
         <v>9</v>
       </c>
-      <c r="C77" s="7">
+      <c r="C77" s="6">
         <v>0</v>
       </c>
       <c r="E77" t="s">
         <v>56</v>
       </c>
-      <c r="F77" s="7">
+      <c r="F77" s="6">
         <f>FV(C66,5,C75,C73)</f>
         <v>5105.1262500000003</v>
       </c>
     </row>
     <row r="78" spans="2:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B78" s="6">
+      <c r="B78" s="5">
         <v>10</v>
       </c>
-      <c r="C78" s="7">
+      <c r="C78" s="6">
         <v>0</v>
       </c>
       <c r="D78" t="s">
@@ -2303,18 +3383,18 @@
       <c r="E78" t="s">
         <v>57</v>
       </c>
-      <c r="F78" s="12">
+      <c r="F78" s="11">
         <f>FV(C66,2,C77,C76)</f>
         <v>8820</v>
       </c>
     </row>
     <row r="79" spans="2:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="F79" s="5">
+      <c r="F79" s="4">
         <f>SUM(F75:F78)</f>
         <v>28130.860342031836</v>
       </c>
     </row>
-    <row r="81" spans="1:9" s="14" customFormat="1" ht="6.6" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="81" spans="1:9" s="12" customFormat="1" ht="6.6" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="82" spans="1:9" x14ac:dyDescent="0.3">
       <c r="B82">
         <v>42</v>
@@ -2331,11 +3411,9 @@
       </c>
     </row>
     <row r="89" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A89" s="13" t="s">
+      <c r="A89" t="s">
         <v>58</v>
       </c>
-      <c r="B89" s="13"/>
-      <c r="C89" s="13"/>
       <c r="D89" t="s">
         <v>62</v>
       </c>
@@ -2344,11 +3422,9 @@
       </c>
     </row>
     <row r="90" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A90" s="13" t="s">
+      <c r="A90" t="s">
         <v>59</v>
       </c>
-      <c r="B90" s="13"/>
-      <c r="C90" s="13"/>
       <c r="D90" t="s">
         <v>63</v>
       </c>
@@ -2357,24 +3433,20 @@
       </c>
     </row>
     <row r="91" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A91" s="13" t="s">
+      <c r="A91" t="s">
         <v>60</v>
       </c>
-      <c r="B91" s="13"/>
-      <c r="C91" s="13"/>
       <c r="D91" t="s">
         <v>64</v>
       </c>
     </row>
     <row r="92" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A92" s="13" t="s">
+      <c r="A92" t="s">
         <v>61</v>
       </c>
-      <c r="B92" s="13"/>
-      <c r="C92" s="13"/>
     </row>
     <row r="95" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="I95" s="15"/>
+      <c r="I95" s="13"/>
     </row>
     <row r="96" spans="1:9" x14ac:dyDescent="0.3">
       <c r="F96" t="s">
@@ -2382,22 +3454,22 @@
       </c>
     </row>
     <row r="97" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="D97" s="10"/>
+      <c r="D97" s="9"/>
     </row>
     <row r="98" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B98">
         <v>0</v>
       </c>
-      <c r="C98" s="16" t="s">
+      <c r="C98" s="14" t="s">
         <v>68</v>
       </c>
-      <c r="D98" s="10"/>
+      <c r="D98" s="9"/>
     </row>
     <row r="99" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B99">
         <v>1</v>
       </c>
-      <c r="C99" s="16">
+      <c r="C99" s="14">
         <v>0</v>
       </c>
     </row>
@@ -2405,10 +3477,10 @@
       <c r="B100">
         <v>2</v>
       </c>
-      <c r="C100" s="16">
+      <c r="C100" s="14">
         <v>8250</v>
       </c>
-      <c r="E100" s="17" t="s">
+      <c r="E100" s="2" t="s">
         <v>69</v>
       </c>
     </row>
@@ -2416,7 +3488,7 @@
       <c r="E101" t="s">
         <v>70</v>
       </c>
-      <c r="F101" s="5">
+      <c r="F101" s="4">
         <f>PV(8.16%,2,,C100)</f>
         <v>-7052.1345759952401</v>
       </c>
@@ -2427,23 +3499,23 @@
       </c>
     </row>
     <row r="104" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="E104" s="18" t="s">
+      <c r="E104" s="15" t="s">
         <v>72</v>
       </c>
-      <c r="F104" s="19">
+      <c r="F104" s="16">
         <v>0.08</v>
       </c>
-      <c r="G104" s="8" t="s">
+      <c r="G104" s="7" t="s">
         <v>73</v>
       </c>
-      <c r="H104" s="8"/>
-      <c r="I104" s="8"/>
+      <c r="H104" s="7"/>
+      <c r="I104" s="7"/>
     </row>
     <row r="105" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="E105" s="10" t="s">
+      <c r="E105" s="9" t="s">
         <v>74</v>
       </c>
-      <c r="F105" s="10">
+      <c r="F105" s="9">
         <v>2</v>
       </c>
       <c r="G105" t="s">
@@ -2455,7 +3527,7 @@
       <c r="E107" t="s">
         <v>65</v>
       </c>
-      <c r="G107" s="20">
+      <c r="G107" s="17">
         <f>EFFECT(F104,F105)</f>
         <v>8.1600000000000117E-2</v>
       </c>
@@ -2464,30 +3536,30 @@
       </c>
     </row>
     <row r="112" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="C112" s="10" t="s">
+      <c r="C112" s="9" t="s">
         <v>72</v>
       </c>
-      <c r="D112" s="11">
+      <c r="D112" s="10">
         <v>0.12</v>
       </c>
       <c r="E112" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="113" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="C113" s="10" t="s">
+    <row r="113" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="C113" s="9" t="s">
         <v>74</v>
       </c>
-      <c r="D113" s="10">
+      <c r="D113" s="9">
         <v>12</v>
       </c>
     </row>
-    <row r="114" spans="2:11" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="115" spans="2:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="114" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="115" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="C115" t="s">
         <v>65</v>
       </c>
-      <c r="D115" s="21">
+      <c r="D115" s="18">
         <f>EFFECT(D112,D113)</f>
         <v>0.12682503013196977</v>
       </c>
@@ -2495,18 +3567,21 @@
         <v>78</v>
       </c>
     </row>
-    <row r="117" spans="2:11" s="22" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="118" spans="2:11" ht="21" x14ac:dyDescent="0.4">
-      <c r="B118" s="23" t="s">
+    <row r="117" spans="1:11" s="19" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="118" spans="1:11" ht="21" x14ac:dyDescent="0.4">
+      <c r="B118" s="20" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="120" spans="2:11" x14ac:dyDescent="0.3">
+    <row r="119" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A119" s="37"/>
+    </row>
+    <row r="120" spans="1:11" x14ac:dyDescent="0.3">
       <c r="K120" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="125" spans="2:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="125" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="C125" t="s">
         <v>80</v>
       </c>
@@ -2517,7 +3592,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="126" spans="2:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="126" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="C126" t="s">
         <v>82</v>
       </c>
@@ -2530,13 +3605,13 @@
       <c r="G126" t="s">
         <v>35</v>
       </c>
-      <c r="H126" s="5">
+      <c r="H126" s="4">
         <f>PMT(D127,D126,D125)</f>
         <v>-339.72298410447178</v>
       </c>
     </row>
-    <row r="127" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B127" s="24" t="s">
+    <row r="127" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="B127" s="21" t="s">
         <v>85</v>
       </c>
       <c r="C127" t="s">
@@ -2549,116 +3624,125 @@
         <v>86</v>
       </c>
     </row>
-    <row r="128" spans="2:11" x14ac:dyDescent="0.3">
+    <row r="128" spans="1:11" x14ac:dyDescent="0.3">
       <c r="C128" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="130" spans="2:20" ht="6.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B130" s="22"/>
-      <c r="C130" s="22"/>
-      <c r="D130" s="22"/>
-      <c r="E130" s="22"/>
-      <c r="F130" s="22"/>
-      <c r="G130" s="22"/>
-      <c r="H130" s="22"/>
-      <c r="I130" s="22"/>
-      <c r="J130" s="22"/>
-    </row>
-    <row r="131" spans="2:20" x14ac:dyDescent="0.3">
+    <row r="130" spans="1:24" ht="6.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B130" s="19"/>
+      <c r="C130" s="19"/>
+      <c r="D130" s="19"/>
+      <c r="E130" s="19"/>
+      <c r="F130" s="19"/>
+      <c r="G130" s="19"/>
+      <c r="H130" s="19"/>
+      <c r="I130" s="19"/>
+      <c r="J130" s="19"/>
+    </row>
+    <row r="131" spans="1:24" x14ac:dyDescent="0.3">
       <c r="K131" t="s">
         <v>97</v>
       </c>
-      <c r="N131" s="30" t="s">
+      <c r="P131" s="27" t="s">
         <v>104</v>
       </c>
-      <c r="O131" s="30"/>
-      <c r="P131" s="30"/>
-      <c r="Q131" s="30"/>
-      <c r="R131" s="30"/>
-    </row>
-    <row r="132" spans="2:20" x14ac:dyDescent="0.3">
-      <c r="N132" s="30" t="s">
+      <c r="Q131" s="27"/>
+      <c r="R131" s="27"/>
+      <c r="S131" s="27"/>
+      <c r="T131" s="27"/>
+      <c r="U131" s="27"/>
+      <c r="V131" s="27"/>
+    </row>
+    <row r="132" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="A132" s="37"/>
+      <c r="P132" s="27" t="s">
         <v>102</v>
       </c>
-      <c r="O132" s="30"/>
-      <c r="P132" s="30"/>
-      <c r="Q132" s="30"/>
-      <c r="R132" s="30"/>
-    </row>
-    <row r="135" spans="2:20" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="M135" t="s">
+      <c r="Q132" s="27"/>
+      <c r="R132" s="27"/>
+      <c r="S132" s="27"/>
+      <c r="T132" s="27"/>
+      <c r="U132" s="27"/>
+      <c r="V132" s="27"/>
+    </row>
+    <row r="135" spans="1:24" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="O135" t="s">
         <v>102</v>
       </c>
-      <c r="N135" s="3">
+      <c r="P135" s="3">
         <v>0.06</v>
       </c>
-      <c r="O135" t="s">
+      <c r="Q135" t="s">
         <v>109</v>
       </c>
-      <c r="Q135" t="s">
+      <c r="U135" t="s">
         <v>111</v>
       </c>
     </row>
-    <row r="136" spans="2:20" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="L136" s="6">
+    <row r="136" spans="1:24" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="L136" s="5">
         <v>0</v>
       </c>
-      <c r="M136" s="32">
+      <c r="M136" s="73"/>
+      <c r="N136" s="73"/>
+      <c r="O136" s="29">
         <v>5000</v>
       </c>
-      <c r="N136" s="5">
+      <c r="P136" s="4">
         <v>-3465.10561269966</v>
       </c>
-      <c r="O136" s="2">
-        <f>+M136+N136</f>
+      <c r="Q136" s="2">
+        <f>+O136+P136</f>
         <v>1534.89438730034</v>
       </c>
-      <c r="Q136" t="s">
+      <c r="U136" t="s">
         <v>103</v>
       </c>
-      <c r="R136" s="3">
+      <c r="V136" s="3">
         <v>0.06</v>
       </c>
     </row>
-    <row r="137" spans="2:20" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="137" spans="1:24" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B137" t="s">
         <v>80</v>
       </c>
-      <c r="C137" s="5">
+      <c r="C137" s="4">
         <v>5000</v>
       </c>
-      <c r="G137" s="31" t="s">
+      <c r="G137" s="28" t="s">
         <v>107</v>
       </c>
-      <c r="H137" s="30" t="s">
+      <c r="H137" s="27" t="s">
         <v>106</v>
       </c>
-      <c r="I137" s="31"/>
-      <c r="J137" s="5">
-        <f>-PV(N135,L140,M137)</f>
+      <c r="I137" s="28"/>
+      <c r="J137" s="4">
+        <f>-PV(P135,L140,O137)</f>
         <v>-3465.10561269966</v>
       </c>
       <c r="K137" t="s">
         <v>27</v>
       </c>
-      <c r="L137" s="6">
+      <c r="L137" s="5">
         <v>1</v>
       </c>
-      <c r="M137" s="32">
+      <c r="M137" s="73"/>
+      <c r="N137" s="73"/>
+      <c r="O137" s="29">
         <v>-1000</v>
       </c>
-      <c r="Q137" s="6">
+      <c r="U137" s="5">
         <v>0</v>
       </c>
-      <c r="R137" s="32">
+      <c r="V137" s="29">
         <v>5000</v>
       </c>
-      <c r="S137" s="5">
+      <c r="W137" s="4">
         <v>-3465.10561269966</v>
       </c>
     </row>
-    <row r="138" spans="2:20" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="138" spans="1:24" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B138" t="s">
         <v>98</v>
       </c>
@@ -2668,40 +3752,42 @@
       <c r="D138" t="s">
         <v>99</v>
       </c>
-      <c r="G138" s="30" t="s">
+      <c r="G138" s="27" t="s">
         <v>108</v>
       </c>
-      <c r="H138" s="31"/>
-      <c r="I138" s="30"/>
+      <c r="H138" s="28"/>
+      <c r="I138" s="27"/>
       <c r="J138" s="2">
-        <f>+M136+N136</f>
+        <f>+O136+P136</f>
         <v>1534.89438730034</v>
       </c>
-      <c r="L138" s="6">
+      <c r="L138" s="5">
         <v>2</v>
       </c>
-      <c r="M138" s="32">
+      <c r="M138" s="73"/>
+      <c r="N138" s="73"/>
+      <c r="O138" s="29">
         <v>-1000</v>
       </c>
-      <c r="Q138" s="6">
+      <c r="U138" s="5">
         <v>1</v>
       </c>
-      <c r="R138" s="32">
+      <c r="V138" s="29">
         <v>-1000</v>
       </c>
-      <c r="S138" s="34" t="s">
+      <c r="W138" s="31" t="s">
         <v>19</v>
       </c>
-      <c r="T138" s="5">
-        <f>NPV(R136,R138:R142)</f>
+      <c r="X138" s="4">
+        <f>NPV(V136,V138:V142)</f>
         <v>-4999.9963175117227</v>
       </c>
     </row>
-    <row r="139" spans="2:20" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="139" spans="1:24" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B139" t="s">
         <v>100</v>
       </c>
-      <c r="C139" s="5">
+      <c r="C139" s="4">
         <v>-1000</v>
       </c>
       <c r="D139" t="s">
@@ -2710,38 +3796,40 @@
       <c r="E139" t="s">
         <v>101</v>
       </c>
-      <c r="G139" s="30" t="s">
+      <c r="G139" s="27" t="s">
         <v>110</v>
       </c>
-      <c r="H139" s="30"/>
-      <c r="I139" s="30" t="s">
+      <c r="H139" s="27"/>
+      <c r="I139" s="27" t="s">
         <v>38</v>
       </c>
       <c r="J139" s="2">
-        <f>FV(N135,L141,,J138)</f>
+        <f>FV(P135,L141,,J138)</f>
         <v>-2054.0349279999964</v>
       </c>
-      <c r="L139" s="6">
+      <c r="L139" s="5">
         <v>3</v>
       </c>
-      <c r="M139" s="32">
+      <c r="M139" s="73"/>
+      <c r="N139" s="73"/>
+      <c r="O139" s="29">
         <v>-1000</v>
       </c>
-      <c r="Q139" s="6">
+      <c r="U139" s="5">
         <v>2</v>
       </c>
-      <c r="R139" s="32">
+      <c r="V139" s="29">
         <v>-1000</v>
       </c>
-      <c r="S139" s="34" t="s">
+      <c r="W139" s="31" t="s">
         <v>94</v>
       </c>
-      <c r="T139" s="33">
-        <f>+T138+R137</f>
+      <c r="X139" s="30">
+        <f>+X138+V137</f>
         <v>3.6824882772634737E-3</v>
       </c>
     </row>
-    <row r="140" spans="2:20" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="140" spans="1:24" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B140" t="s">
         <v>103</v>
       </c>
@@ -2751,81 +3839,86 @@
       <c r="D140" t="s">
         <v>105</v>
       </c>
-      <c r="L140" s="6">
+      <c r="L140" s="5">
         <v>4</v>
       </c>
-      <c r="M140" s="32">
+      <c r="M140" s="73"/>
+      <c r="N140" s="73"/>
+      <c r="O140" s="29">
         <v>-1000</v>
       </c>
-      <c r="Q140" s="6">
+      <c r="U140" s="5">
         <v>3</v>
       </c>
-      <c r="R140" s="32">
+      <c r="V140" s="29">
         <v>-1000</v>
       </c>
     </row>
-    <row r="141" spans="2:20" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="141" spans="1:24" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B141" t="s">
         <v>8</v>
       </c>
-      <c r="L141" s="6">
+      <c r="L141" s="5">
         <v>5</v>
       </c>
-      <c r="M141" s="32"/>
-      <c r="Q141" s="6">
+      <c r="M141" s="73"/>
+      <c r="N141" s="73"/>
+      <c r="O141" s="29"/>
+      <c r="U141" s="5">
         <v>4</v>
       </c>
-      <c r="R141" s="32">
+      <c r="V141" s="29">
         <v>-1000</v>
       </c>
     </row>
-    <row r="142" spans="2:20" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="142" spans="1:24" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B142" t="s">
         <v>74</v>
       </c>
       <c r="C142">
         <v>1</v>
       </c>
-      <c r="Q142" s="6">
+      <c r="U142" s="5">
         <v>5</v>
       </c>
-      <c r="R142" s="32">
+      <c r="V142" s="29">
         <v>-2054.0300000000002</v>
       </c>
     </row>
-    <row r="147" spans="2:11" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="148" spans="2:11" s="29" customFormat="1" ht="8.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B148" s="22"/>
-      <c r="C148" s="22"/>
-      <c r="D148" s="22"/>
-      <c r="E148" s="22"/>
-      <c r="F148" s="22"/>
-      <c r="G148" s="22"/>
-      <c r="H148" s="22"/>
-      <c r="I148" s="22"/>
-      <c r="J148" s="22"/>
-    </row>
-    <row r="149" spans="2:11" x14ac:dyDescent="0.3">
+    <row r="147" spans="1:11" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="148" spans="1:11" s="26" customFormat="1" ht="8.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B148" s="19"/>
+      <c r="C148" s="19"/>
+      <c r="D148" s="19"/>
+      <c r="E148" s="19"/>
+      <c r="F148" s="19"/>
+      <c r="G148" s="19"/>
+      <c r="H148" s="19"/>
+      <c r="I148" s="19"/>
+      <c r="J148" s="19"/>
+    </row>
+    <row r="149" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A149" s="37"/>
       <c r="K149" t="s">
         <v>87</v>
       </c>
     </row>
-    <row r="150" spans="2:11" x14ac:dyDescent="0.3">
+    <row r="150" spans="1:11" x14ac:dyDescent="0.3">
       <c r="K150" t="s">
         <v>88</v>
       </c>
     </row>
-    <row r="153" spans="2:11" x14ac:dyDescent="0.3">
+    <row r="153" spans="1:11" x14ac:dyDescent="0.3">
       <c r="K153" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="154" spans="2:11" x14ac:dyDescent="0.3">
+    <row r="154" spans="1:11" x14ac:dyDescent="0.3">
       <c r="K154" t="s">
         <v>90</v>
       </c>
     </row>
-    <row r="160" spans="2:11" x14ac:dyDescent="0.3">
+    <row r="160" spans="1:11" x14ac:dyDescent="0.3">
       <c r="B160" s="3">
         <v>0.06</v>
       </c>
@@ -2837,80 +3930,80 @@
       <c r="A161" t="s">
         <v>91</v>
       </c>
-      <c r="B161" s="6" t="s">
+      <c r="B161" s="5" t="s">
         <v>92</v>
       </c>
-      <c r="C161" s="6"/>
-      <c r="D161" s="6" t="s">
+      <c r="C161" s="5"/>
+      <c r="D161" s="5" t="s">
         <v>93</v>
       </c>
     </row>
     <row r="162" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A162" s="26" t="s">
+      <c r="A162" s="23" t="s">
         <v>95</v>
       </c>
-      <c r="B162" s="5">
+      <c r="B162" s="4">
         <v>-5000</v>
       </c>
-      <c r="C162" s="25">
+      <c r="C162" s="22">
         <v>0</v>
       </c>
-      <c r="D162" s="5">
+      <c r="D162" s="4">
         <v>-5000</v>
       </c>
     </row>
     <row r="163" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B163" s="5">
+      <c r="B163" s="4">
         <v>1300</v>
       </c>
-      <c r="C163" s="25">
+      <c r="C163" s="22">
         <v>1</v>
       </c>
-      <c r="D163" s="5">
+      <c r="D163" s="4">
         <v>1300</v>
       </c>
     </row>
     <row r="164" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B164" s="5">
+      <c r="B164" s="4">
         <v>1240</v>
       </c>
-      <c r="C164" s="25">
+      <c r="C164" s="22">
         <v>2</v>
       </c>
-      <c r="D164" s="5">
+      <c r="D164" s="4">
         <v>1240</v>
       </c>
     </row>
     <row r="165" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B165" s="5">
+      <c r="B165" s="4">
         <v>1180</v>
       </c>
-      <c r="C165" s="25">
+      <c r="C165" s="22">
         <v>3</v>
       </c>
-      <c r="D165" s="5">
+      <c r="D165" s="4">
         <v>1180</v>
       </c>
     </row>
     <row r="166" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B166" s="5">
+      <c r="B166" s="4">
         <v>1120</v>
       </c>
-      <c r="C166" s="25">
+      <c r="C166" s="22">
         <v>4</v>
       </c>
-      <c r="D166" s="5">
+      <c r="D166" s="4">
         <v>1120</v>
       </c>
     </row>
     <row r="167" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B167" s="5">
+      <c r="B167" s="4">
         <v>1060</v>
       </c>
-      <c r="C167" s="25">
+      <c r="C167" s="22">
         <v>5</v>
       </c>
-      <c r="D167" s="5">
+      <c r="D167" s="4">
         <v>1060</v>
       </c>
     </row>
@@ -2919,11 +4012,11 @@
       <c r="A170" t="s">
         <v>19</v>
       </c>
-      <c r="B170" s="5">
+      <c r="B170" s="4">
         <f>NPV(B160,B163:B167)</f>
         <v>4999.9999999999991</v>
       </c>
-      <c r="D170" s="5">
+      <c r="D170" s="4">
         <f>NPV(D160,D163:D167)</f>
         <v>4516.3147077633776</v>
       </c>
@@ -2932,14 +4025,14 @@
       <c r="A171" t="s">
         <v>94</v>
       </c>
-      <c r="B171" s="5">
+      <c r="B171" s="4">
         <f>+B170+B162</f>
         <v>0</v>
       </c>
-      <c r="C171" s="27" t="s">
+      <c r="C171" s="24" t="s">
         <v>95</v>
       </c>
-      <c r="D171" s="28">
+      <c r="D171" s="25">
         <f>+D170+D162</f>
         <v>-483.68529223662244</v>
       </c>
@@ -2947,19 +4040,20 @@
         <v>96</v>
       </c>
     </row>
-    <row r="173" spans="1:5" s="22" customFormat="1" ht="19.2" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="173" spans="1:5" s="19" customFormat="1" ht="19.2" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="175" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A175" s="37"/>
       <c r="B175" t="s">
         <v>112</v>
       </c>
     </row>
     <row r="176" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="B176" s="35" t="s">
+      <c r="B176" s="32" t="s">
         <v>113</v>
       </c>
     </row>
     <row r="177" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B177" s="35" t="s">
+      <c r="B177" s="32" t="s">
         <v>114</v>
       </c>
     </row>
@@ -2968,7 +4062,1413 @@
         <v>115</v>
       </c>
     </row>
+    <row r="195" spans="1:17" s="19" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="196" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="197" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="C197" s="15" t="s">
+        <v>144</v>
+      </c>
+      <c r="J197" s="33" t="s">
+        <v>119</v>
+      </c>
+      <c r="K197" s="33" t="s">
+        <v>120</v>
+      </c>
+      <c r="L197" s="4">
+        <f>FV(K200,K199,0,K201)</f>
+        <v>-944.78400000000011</v>
+      </c>
+      <c r="M197" s="74"/>
+      <c r="N197" s="74"/>
+      <c r="Q197" s="64" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="198" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A198" s="37"/>
+      <c r="J198" s="33" t="s">
+        <v>118</v>
+      </c>
+      <c r="K198" s="33"/>
+      <c r="Q198" s="64" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="199" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="J199" s="33" t="s">
+        <v>117</v>
+      </c>
+      <c r="K199" s="33">
+        <v>3</v>
+      </c>
+      <c r="L199" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="200" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="J200" s="33" t="s">
+        <v>145</v>
+      </c>
+      <c r="K200" s="34">
+        <v>0.08</v>
+      </c>
+      <c r="L200" s="65" t="s">
+        <v>146</v>
+      </c>
+      <c r="M200" s="65"/>
+      <c r="N200" s="65"/>
+      <c r="O200" s="65"/>
+    </row>
+    <row r="201" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="J201" s="33" t="s">
+        <v>116</v>
+      </c>
+      <c r="K201" s="35">
+        <v>750</v>
+      </c>
+    </row>
+    <row r="202" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="J202" s="33" t="s">
+        <v>147</v>
+      </c>
+      <c r="K202" s="33">
+        <v>1</v>
+      </c>
+      <c r="L202" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="203" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="J203" s="33" t="s">
+        <v>103</v>
+      </c>
+      <c r="K203">
+        <f>EFFECT(K200,K202)</f>
+        <v>8.0000000000000071E-2</v>
+      </c>
+      <c r="L203" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="210" spans="1:21" s="19" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="211" spans="1:21" ht="18" x14ac:dyDescent="0.35">
+      <c r="C211" s="66" t="s">
+        <v>144</v>
+      </c>
+      <c r="K211" s="47" t="s">
+        <v>151</v>
+      </c>
+      <c r="N211">
+        <v>21.6</v>
+      </c>
+      <c r="O211" t="s">
+        <v>159</v>
+      </c>
+      <c r="P211" s="47" t="s">
+        <v>152</v>
+      </c>
+      <c r="S211" t="s">
+        <v>153</v>
+      </c>
+      <c r="U211" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="212" spans="1:21" ht="28.8" x14ac:dyDescent="0.55000000000000004">
+      <c r="A212" s="37"/>
+      <c r="J212" t="s">
+        <v>157</v>
+      </c>
+      <c r="K212" s="71">
+        <f>FV(K215,K214,,K216)</f>
+        <v>3307.5</v>
+      </c>
+      <c r="N212">
+        <v>12</v>
+      </c>
+      <c r="O212" t="s">
+        <v>160</v>
+      </c>
+      <c r="P212" s="2">
+        <f>FV(P219,P214,,P216)</f>
+        <v>3313.4583035442365</v>
+      </c>
+      <c r="U212" s="72">
+        <f>P212-K212</f>
+        <v>5.9583035442365144</v>
+      </c>
+    </row>
+    <row r="213" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="J213" t="s">
+        <v>118</v>
+      </c>
+      <c r="K213" s="9"/>
+      <c r="N213">
+        <v>1.8</v>
+      </c>
+      <c r="O213" t="s">
+        <v>161</v>
+      </c>
+      <c r="P213" s="9"/>
+    </row>
+    <row r="214" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="J214" t="s">
+        <v>117</v>
+      </c>
+      <c r="K214" s="9">
+        <v>2</v>
+      </c>
+      <c r="L214" t="s">
+        <v>99</v>
+      </c>
+      <c r="N214" s="36">
+        <v>22</v>
+      </c>
+      <c r="O214" t="s">
+        <v>162</v>
+      </c>
+      <c r="P214" s="9">
+        <f>+K214*P218</f>
+        <v>8</v>
+      </c>
+      <c r="Q214" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="215" spans="1:21" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="J215" t="s">
+        <v>145</v>
+      </c>
+      <c r="K215" s="10">
+        <v>0.05</v>
+      </c>
+      <c r="N215" s="75">
+        <v>79.2</v>
+      </c>
+      <c r="O215" t="s">
+        <v>163</v>
+      </c>
+      <c r="P215" s="10">
+        <v>0.05</v>
+      </c>
+    </row>
+    <row r="216" spans="1:21" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="J216" t="s">
+        <v>121</v>
+      </c>
+      <c r="K216" s="67">
+        <v>-3000</v>
+      </c>
+      <c r="P216" s="67">
+        <v>-3000</v>
+      </c>
+    </row>
+    <row r="217" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="J217" t="s">
+        <v>103</v>
+      </c>
+      <c r="K217" s="9">
+        <f>EFFECT(K215,K218)</f>
+        <v>5.0000000000000044E-2</v>
+      </c>
+      <c r="P217" s="68">
+        <f>EFFECT(P215,P218)</f>
+        <v>5.0945336914062445E-2</v>
+      </c>
+      <c r="Q217" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="218" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="J218" t="s">
+        <v>74</v>
+      </c>
+      <c r="K218" s="9">
+        <v>1</v>
+      </c>
+      <c r="P218" s="9">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="219" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="J219" t="s">
+        <v>64</v>
+      </c>
+      <c r="K219" s="69">
+        <f>K215/K218</f>
+        <v>0.05</v>
+      </c>
+      <c r="L219" t="s">
+        <v>78</v>
+      </c>
+      <c r="P219" s="69">
+        <f>P215/P218</f>
+        <v>1.2500000000000001E-2</v>
+      </c>
+      <c r="Q219" t="s">
+        <v>155</v>
+      </c>
+      <c r="R219" s="70" t="s">
+        <v>156</v>
+      </c>
+      <c r="S219" s="70"/>
+      <c r="T219" s="70"/>
+    </row>
+    <row r="223" spans="1:21" s="19" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="225" spans="2:22" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B225" s="39" t="s">
+        <v>123</v>
+      </c>
+      <c r="J225" t="s">
+        <v>122</v>
+      </c>
+      <c r="K225" s="9"/>
+      <c r="L225" s="9"/>
+      <c r="M225" s="9"/>
+      <c r="N225" s="9"/>
+      <c r="O225" s="9"/>
+      <c r="U225" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="226" spans="2:22" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="J226" t="s">
+        <v>32</v>
+      </c>
+      <c r="K226" s="4">
+        <v>-49900</v>
+      </c>
+      <c r="L226" s="9"/>
+      <c r="M226" s="9"/>
+      <c r="N226" s="9"/>
+      <c r="O226" s="9"/>
+      <c r="P226" t="s">
+        <v>125</v>
+      </c>
+      <c r="U226" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="227" spans="2:22" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="J227" t="s">
+        <v>117</v>
+      </c>
+      <c r="K227" s="9">
+        <v>24</v>
+      </c>
+      <c r="L227" s="9" t="s">
+        <v>83</v>
+      </c>
+      <c r="M227" s="9"/>
+      <c r="N227" s="9"/>
+      <c r="O227" s="9"/>
+      <c r="P227" s="17" t="s">
+        <v>129</v>
+      </c>
+      <c r="U227" s="17" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="228" spans="2:22" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="J228" t="s">
+        <v>124</v>
+      </c>
+      <c r="K228" s="9"/>
+      <c r="L228" s="9"/>
+      <c r="M228" s="9"/>
+      <c r="N228" s="9"/>
+      <c r="O228" s="9"/>
+      <c r="P228" s="40">
+        <f>RATE(K227,K226,K229)</f>
+        <v>1.4958425751440629E-2</v>
+      </c>
+      <c r="Q228" t="s">
+        <v>86</v>
+      </c>
+      <c r="U228" s="45">
+        <f>IRR(U229:U253)</f>
+        <v>1.4958425751440796E-2</v>
+      </c>
+      <c r="V228" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="229" spans="2:22" x14ac:dyDescent="0.3">
+      <c r="J229" t="s">
+        <v>116</v>
+      </c>
+      <c r="K229" s="38">
+        <v>1000000</v>
+      </c>
+      <c r="L229" s="9"/>
+      <c r="M229" s="9"/>
+      <c r="N229" s="9"/>
+      <c r="O229" s="9"/>
+      <c r="P229" s="42"/>
+      <c r="Q229" s="43"/>
+      <c r="R229" s="43"/>
+      <c r="S229" s="43"/>
+      <c r="T229" s="5">
+        <v>0</v>
+      </c>
+      <c r="U229" s="44">
+        <f>K229</f>
+        <v>1000000</v>
+      </c>
+    </row>
+    <row r="230" spans="2:22" x14ac:dyDescent="0.3">
+      <c r="T230" s="5">
+        <v>1</v>
+      </c>
+      <c r="U230" s="6">
+        <f>$K$226</f>
+        <v>-49900</v>
+      </c>
+      <c r="V230" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="231" spans="2:22" ht="18" x14ac:dyDescent="0.35">
+      <c r="D231" s="54" t="s">
+        <v>143</v>
+      </c>
+      <c r="E231" s="54"/>
+      <c r="K231" s="55" t="s">
+        <v>130</v>
+      </c>
+      <c r="L231" s="56"/>
+      <c r="M231" s="56"/>
+      <c r="N231" s="56"/>
+      <c r="O231" s="56"/>
+      <c r="P231" s="56"/>
+      <c r="Q231" s="56"/>
+      <c r="R231" s="57"/>
+      <c r="T231" s="5">
+        <v>2</v>
+      </c>
+      <c r="U231" s="6">
+        <f t="shared" ref="U231:U253" si="0">$K$226</f>
+        <v>-49900</v>
+      </c>
+    </row>
+    <row r="232" spans="2:22" x14ac:dyDescent="0.3">
+      <c r="K232" s="58"/>
+      <c r="L232" s="59"/>
+      <c r="M232" s="59"/>
+      <c r="N232" s="59"/>
+      <c r="O232" s="59"/>
+      <c r="P232" s="59"/>
+      <c r="Q232" s="59"/>
+      <c r="R232" s="60"/>
+      <c r="T232" s="5">
+        <v>3</v>
+      </c>
+      <c r="U232" s="6">
+        <f t="shared" si="0"/>
+        <v>-49900</v>
+      </c>
+    </row>
+    <row r="233" spans="2:22" x14ac:dyDescent="0.3">
+      <c r="J233" s="41"/>
+      <c r="K233" s="61"/>
+      <c r="L233" s="62"/>
+      <c r="M233" s="62"/>
+      <c r="N233" s="62"/>
+      <c r="O233" s="62"/>
+      <c r="P233" s="62"/>
+      <c r="Q233" s="62"/>
+      <c r="R233" s="63"/>
+      <c r="T233" s="5">
+        <v>4</v>
+      </c>
+      <c r="U233" s="6">
+        <f t="shared" si="0"/>
+        <v>-49900</v>
+      </c>
+    </row>
+    <row r="234" spans="2:22" x14ac:dyDescent="0.3">
+      <c r="T234" s="5">
+        <v>5</v>
+      </c>
+      <c r="U234" s="6">
+        <f t="shared" si="0"/>
+        <v>-49900</v>
+      </c>
+    </row>
+    <row r="235" spans="2:22" x14ac:dyDescent="0.3">
+      <c r="T235" s="5">
+        <v>6</v>
+      </c>
+      <c r="U235" s="6">
+        <f t="shared" si="0"/>
+        <v>-49900</v>
+      </c>
+    </row>
+    <row r="236" spans="2:22" ht="18" x14ac:dyDescent="0.35">
+      <c r="K236" s="48" t="s">
+        <v>132</v>
+      </c>
+      <c r="P236" s="33" t="s">
+        <v>74</v>
+      </c>
+      <c r="Q236" s="52">
+        <v>12</v>
+      </c>
+      <c r="R236" s="49" t="s">
+        <v>135</v>
+      </c>
+      <c r="T236" s="5">
+        <v>7</v>
+      </c>
+      <c r="U236" s="6">
+        <f t="shared" si="0"/>
+        <v>-49900</v>
+      </c>
+    </row>
+    <row r="237" spans="2:22" x14ac:dyDescent="0.3">
+      <c r="K237" t="s">
+        <v>129</v>
+      </c>
+      <c r="L237" s="46" t="s">
+        <v>133</v>
+      </c>
+      <c r="M237" s="33"/>
+      <c r="N237" s="33"/>
+      <c r="P237" s="33"/>
+      <c r="Q237" s="33"/>
+      <c r="R237" s="50" t="s">
+        <v>136</v>
+      </c>
+      <c r="T237" s="5">
+        <v>8</v>
+      </c>
+      <c r="U237" s="6">
+        <f t="shared" si="0"/>
+        <v>-49900</v>
+      </c>
+    </row>
+    <row r="238" spans="2:22" x14ac:dyDescent="0.3">
+      <c r="K238" t="s">
+        <v>128</v>
+      </c>
+      <c r="L238" s="46"/>
+      <c r="M238" s="33"/>
+      <c r="N238" s="33"/>
+      <c r="T238" s="5">
+        <v>9</v>
+      </c>
+      <c r="U238" s="6">
+        <f t="shared" si="0"/>
+        <v>-49900</v>
+      </c>
+    </row>
+    <row r="239" spans="2:22" x14ac:dyDescent="0.3">
+      <c r="O239" t="s">
+        <v>139</v>
+      </c>
+      <c r="P239" t="s">
+        <v>134</v>
+      </c>
+      <c r="Q239" s="51">
+        <f>P228*Q236</f>
+        <v>0.17950110901728755</v>
+      </c>
+      <c r="R239" t="s">
+        <v>137</v>
+      </c>
+      <c r="T239" s="5">
+        <v>10</v>
+      </c>
+      <c r="U239" s="6">
+        <f t="shared" si="0"/>
+        <v>-49900</v>
+      </c>
+    </row>
+    <row r="240" spans="2:22" x14ac:dyDescent="0.3">
+      <c r="K240" t="s">
+        <v>64</v>
+      </c>
+      <c r="Q240" t="s">
+        <v>138</v>
+      </c>
+      <c r="T240" s="5">
+        <v>11</v>
+      </c>
+      <c r="U240" s="6">
+        <f t="shared" si="0"/>
+        <v>-49900</v>
+      </c>
+    </row>
+    <row r="241" spans="9:21" x14ac:dyDescent="0.3">
+      <c r="T241" s="5">
+        <v>12</v>
+      </c>
+      <c r="U241" s="6">
+        <f t="shared" si="0"/>
+        <v>-49900</v>
+      </c>
+    </row>
+    <row r="242" spans="9:21" x14ac:dyDescent="0.3">
+      <c r="O242" t="s">
+        <v>140</v>
+      </c>
+      <c r="P242" t="s">
+        <v>103</v>
+      </c>
+      <c r="Q242" s="53">
+        <f>EFFECT(Q239,Q236)</f>
+        <v>0.19503063572988344</v>
+      </c>
+      <c r="T242" s="5">
+        <v>13</v>
+      </c>
+      <c r="U242" s="6">
+        <f t="shared" si="0"/>
+        <v>-49900</v>
+      </c>
+    </row>
+    <row r="243" spans="9:21" x14ac:dyDescent="0.3">
+      <c r="Q243" t="s">
+        <v>141</v>
+      </c>
+      <c r="T243" s="5">
+        <v>14</v>
+      </c>
+      <c r="U243" s="6">
+        <f t="shared" si="0"/>
+        <v>-49900</v>
+      </c>
+    </row>
+    <row r="244" spans="9:21" x14ac:dyDescent="0.3">
+      <c r="Q244" t="s">
+        <v>142</v>
+      </c>
+      <c r="T244" s="5">
+        <v>15</v>
+      </c>
+      <c r="U244" s="6">
+        <f t="shared" si="0"/>
+        <v>-49900</v>
+      </c>
+    </row>
+    <row r="245" spans="9:21" x14ac:dyDescent="0.3">
+      <c r="T245" s="5">
+        <v>16</v>
+      </c>
+      <c r="U245" s="6">
+        <f t="shared" si="0"/>
+        <v>-49900</v>
+      </c>
+    </row>
+    <row r="246" spans="9:21" x14ac:dyDescent="0.3">
+      <c r="T246" s="5">
+        <v>17</v>
+      </c>
+      <c r="U246" s="6">
+        <f t="shared" si="0"/>
+        <v>-49900</v>
+      </c>
+    </row>
+    <row r="247" spans="9:21" x14ac:dyDescent="0.3">
+      <c r="T247" s="5">
+        <v>18</v>
+      </c>
+      <c r="U247" s="6">
+        <f t="shared" si="0"/>
+        <v>-49900</v>
+      </c>
+    </row>
+    <row r="248" spans="9:21" x14ac:dyDescent="0.3">
+      <c r="T248" s="5">
+        <v>19</v>
+      </c>
+      <c r="U248" s="6">
+        <f t="shared" si="0"/>
+        <v>-49900</v>
+      </c>
+    </row>
+    <row r="249" spans="9:21" x14ac:dyDescent="0.3">
+      <c r="T249" s="5">
+        <v>20</v>
+      </c>
+      <c r="U249" s="6">
+        <f t="shared" si="0"/>
+        <v>-49900</v>
+      </c>
+    </row>
+    <row r="250" spans="9:21" x14ac:dyDescent="0.3">
+      <c r="T250" s="5">
+        <v>21</v>
+      </c>
+      <c r="U250" s="6">
+        <f t="shared" si="0"/>
+        <v>-49900</v>
+      </c>
+    </row>
+    <row r="251" spans="9:21" x14ac:dyDescent="0.3">
+      <c r="T251" s="5">
+        <v>22</v>
+      </c>
+      <c r="U251" s="6">
+        <f t="shared" si="0"/>
+        <v>-49900</v>
+      </c>
+    </row>
+    <row r="252" spans="9:21" x14ac:dyDescent="0.3">
+      <c r="T252" s="5">
+        <v>23</v>
+      </c>
+      <c r="U252" s="6">
+        <f t="shared" si="0"/>
+        <v>-49900</v>
+      </c>
+    </row>
+    <row r="253" spans="9:21" x14ac:dyDescent="0.3">
+      <c r="T253" s="5">
+        <v>24</v>
+      </c>
+      <c r="U253" s="6">
+        <f t="shared" si="0"/>
+        <v>-49900</v>
+      </c>
+    </row>
+    <row r="255" spans="9:21" s="19" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="256" spans="9:21" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="I256" t="s">
+        <v>119</v>
+      </c>
+      <c r="J256" s="9"/>
+      <c r="L256" s="33" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="257" spans="9:14" ht="21.6" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="I257" t="s">
+        <v>118</v>
+      </c>
+      <c r="J257" s="4">
+        <v>-51</v>
+      </c>
+      <c r="K257" t="s">
+        <v>166</v>
+      </c>
+      <c r="L257" s="78">
+        <f>RATE(J258,J257,J259)</f>
+        <v>9.9784921115874444E-3</v>
+      </c>
+      <c r="M257" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="258" spans="9:14" x14ac:dyDescent="0.3">
+      <c r="I258" t="s">
+        <v>117</v>
+      </c>
+      <c r="J258" s="9">
+        <v>50</v>
+      </c>
+      <c r="K258" s="76" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="259" spans="9:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="I259" t="s">
+        <v>121</v>
+      </c>
+      <c r="J259" s="38">
+        <v>2000</v>
+      </c>
+    </row>
+    <row r="260" spans="9:14" x14ac:dyDescent="0.3">
+      <c r="I260" s="83" t="s">
+        <v>165</v>
+      </c>
+      <c r="J260" s="84">
+        <f>L257</f>
+        <v>9.9784921115874444E-3</v>
+      </c>
+    </row>
+    <row r="261" spans="9:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="I261" s="85" t="s">
+        <v>145</v>
+      </c>
+      <c r="J261" s="86">
+        <f>J260*J262</f>
+        <v>0.11974190533904933</v>
+      </c>
+      <c r="K261" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="262" spans="9:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="I262" t="s">
+        <v>164</v>
+      </c>
+      <c r="J262">
+        <v>12</v>
+      </c>
+      <c r="K262" t="s">
+        <v>168</v>
+      </c>
+      <c r="L262" s="79" t="s">
+        <v>169</v>
+      </c>
+      <c r="M262" s="80"/>
+    </row>
+    <row r="263" spans="9:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="I263" s="81" t="s">
+        <v>103</v>
+      </c>
+      <c r="J263" s="82">
+        <f>EFFECT(J261,J262)</f>
+        <v>0.12653711581100935</v>
+      </c>
+      <c r="K263" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="265" spans="9:14" s="19" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="266" spans="9:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="I266" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="267" spans="9:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="I267" t="s">
+        <v>171</v>
+      </c>
+      <c r="J267" s="4">
+        <f>PMT(M268,J268,J270)</f>
+        <v>-116.24433964754144</v>
+      </c>
+    </row>
+    <row r="268" spans="9:14" x14ac:dyDescent="0.3">
+      <c r="I268" t="s">
+        <v>117</v>
+      </c>
+      <c r="J268">
+        <v>30</v>
+      </c>
+      <c r="K268" t="s">
+        <v>83</v>
+      </c>
+      <c r="L268" s="51" t="s">
+        <v>64</v>
+      </c>
+      <c r="M268" s="51">
+        <f>J271/J272</f>
+        <v>0.01</v>
+      </c>
+      <c r="N268" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="269" spans="9:14" x14ac:dyDescent="0.3">
+      <c r="I269" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="270" spans="9:14" x14ac:dyDescent="0.3">
+      <c r="I270" t="s">
+        <v>121</v>
+      </c>
+      <c r="J270" s="36">
+        <v>3000</v>
+      </c>
+      <c r="K270" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="271" spans="9:14" x14ac:dyDescent="0.3">
+      <c r="I271" t="s">
+        <v>72</v>
+      </c>
+      <c r="J271" s="3">
+        <v>0.12</v>
+      </c>
+      <c r="K271" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="272" spans="9:14" x14ac:dyDescent="0.3">
+      <c r="I272" t="s">
+        <v>74</v>
+      </c>
+      <c r="J272">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="274" spans="2:14" s="19" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="275" spans="2:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="J275" t="s">
+        <v>176</v>
+      </c>
+      <c r="L275" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="276" spans="2:14" ht="26.4" thickBot="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="J276" s="89">
+        <v>40</v>
+      </c>
+      <c r="K276" s="5">
+        <v>0</v>
+      </c>
+      <c r="L276" s="90" t="s">
+        <v>50</v>
+      </c>
+      <c r="M276" s="87" t="s">
+        <v>19</v>
+      </c>
+      <c r="N276" s="91">
+        <f>NPV(C288,K277:K325)</f>
+        <v>15373.616000035881</v>
+      </c>
+    </row>
+    <row r="277" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="J277" s="89">
+        <v>40.5</v>
+      </c>
+      <c r="K277" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="278" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="J278" s="89">
+        <v>41</v>
+      </c>
+      <c r="K278" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="279" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="J279" s="89">
+        <v>41.5</v>
+      </c>
+      <c r="K279" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="280" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="J280" s="89">
+        <v>42</v>
+      </c>
+      <c r="K280" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="281" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="B281">
+        <v>40</v>
+      </c>
+      <c r="C281" t="s">
+        <v>172</v>
+      </c>
+      <c r="J281" s="89">
+        <v>42.5</v>
+      </c>
+      <c r="K281" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="282" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="B282" t="s">
+        <v>117</v>
+      </c>
+      <c r="C282" s="9">
+        <v>30</v>
+      </c>
+      <c r="D282" t="s">
+        <v>173</v>
+      </c>
+      <c r="J282" s="89">
+        <v>43</v>
+      </c>
+      <c r="K282" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="283" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="B283" t="s">
+        <v>118</v>
+      </c>
+      <c r="C283" s="38">
+        <v>1000</v>
+      </c>
+      <c r="D283" t="s">
+        <v>174</v>
+      </c>
+      <c r="J283" s="89">
+        <v>43.5</v>
+      </c>
+      <c r="K283" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="284" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="C284" s="9"/>
+      <c r="J284" s="89">
+        <v>44</v>
+      </c>
+      <c r="K284" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="285" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="B285">
+        <v>50</v>
+      </c>
+      <c r="C285" s="9" t="s">
+        <v>175</v>
+      </c>
+      <c r="J285" s="89">
+        <v>44.5</v>
+      </c>
+      <c r="K285" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="286" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="B286" t="s">
+        <v>72</v>
+      </c>
+      <c r="C286" s="10">
+        <v>0.04</v>
+      </c>
+      <c r="D286" t="s">
+        <v>78</v>
+      </c>
+      <c r="J286" s="89">
+        <v>45</v>
+      </c>
+      <c r="K286" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="287" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="B287" t="s">
+        <v>74</v>
+      </c>
+      <c r="C287" s="9">
+        <v>2</v>
+      </c>
+      <c r="J287" s="89">
+        <v>45.5</v>
+      </c>
+      <c r="K287" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="288" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="B288" t="s">
+        <v>177</v>
+      </c>
+      <c r="C288" s="77">
+        <f>C286/C287</f>
+        <v>0.02</v>
+      </c>
+      <c r="J288" s="89">
+        <v>46</v>
+      </c>
+      <c r="K288" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="289" spans="10:12" x14ac:dyDescent="0.3">
+      <c r="J289" s="89">
+        <v>46.5</v>
+      </c>
+      <c r="K289" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="290" spans="10:12" x14ac:dyDescent="0.3">
+      <c r="J290" s="89">
+        <v>47</v>
+      </c>
+      <c r="K290" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="291" spans="10:12" x14ac:dyDescent="0.3">
+      <c r="J291" s="89">
+        <v>47.5</v>
+      </c>
+      <c r="K291" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="292" spans="10:12" x14ac:dyDescent="0.3">
+      <c r="J292" s="89">
+        <v>48</v>
+      </c>
+      <c r="K292" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="293" spans="10:12" x14ac:dyDescent="0.3">
+      <c r="J293" s="89">
+        <v>48.5</v>
+      </c>
+      <c r="K293" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="294" spans="10:12" x14ac:dyDescent="0.3">
+      <c r="J294" s="89">
+        <v>49</v>
+      </c>
+      <c r="K294" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="295" spans="10:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="J295" s="89">
+        <v>49.5</v>
+      </c>
+      <c r="K295" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="296" spans="10:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="J296" s="89">
+        <v>50</v>
+      </c>
+      <c r="K296" s="4">
+        <v>1000</v>
+      </c>
+      <c r="L296">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="297" spans="10:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="J297" s="89">
+        <v>50.5</v>
+      </c>
+      <c r="K297" s="4">
+        <v>1000</v>
+      </c>
+      <c r="L297">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="298" spans="10:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="J298" s="89">
+        <v>51</v>
+      </c>
+      <c r="K298" s="4">
+        <v>1000</v>
+      </c>
+      <c r="L298">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="299" spans="10:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="J299" s="89">
+        <v>51.5</v>
+      </c>
+      <c r="K299" s="4">
+        <v>1000</v>
+      </c>
+      <c r="L299">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="300" spans="10:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="J300" s="89">
+        <v>52</v>
+      </c>
+      <c r="K300" s="4">
+        <v>1000</v>
+      </c>
+      <c r="L300">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="301" spans="10:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="J301" s="89">
+        <v>52.5</v>
+      </c>
+      <c r="K301" s="4">
+        <v>1000</v>
+      </c>
+      <c r="L301">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="302" spans="10:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="J302" s="89">
+        <v>53</v>
+      </c>
+      <c r="K302" s="4">
+        <v>1000</v>
+      </c>
+      <c r="L302">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="303" spans="10:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="J303" s="89">
+        <v>53.5</v>
+      </c>
+      <c r="K303" s="4">
+        <v>1000</v>
+      </c>
+      <c r="L303">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="304" spans="10:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="J304" s="89">
+        <v>54</v>
+      </c>
+      <c r="K304" s="4">
+        <v>1000</v>
+      </c>
+      <c r="L304">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="305" spans="10:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="J305" s="89">
+        <v>54.5</v>
+      </c>
+      <c r="K305" s="4">
+        <v>1000</v>
+      </c>
+      <c r="L305">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="306" spans="10:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="J306" s="89">
+        <v>55</v>
+      </c>
+      <c r="K306" s="4">
+        <v>1000</v>
+      </c>
+      <c r="L306">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="307" spans="10:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="J307" s="89">
+        <v>55.5</v>
+      </c>
+      <c r="K307" s="4">
+        <v>1000</v>
+      </c>
+      <c r="L307">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="308" spans="10:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="J308" s="89">
+        <v>56</v>
+      </c>
+      <c r="K308" s="4">
+        <v>1000</v>
+      </c>
+      <c r="L308">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="309" spans="10:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="J309" s="89">
+        <v>56.5</v>
+      </c>
+      <c r="K309" s="4">
+        <v>1000</v>
+      </c>
+      <c r="L309">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="310" spans="10:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="J310" s="89">
+        <v>57</v>
+      </c>
+      <c r="K310" s="4">
+        <v>1000</v>
+      </c>
+      <c r="L310">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="311" spans="10:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="J311" s="89">
+        <v>57.5</v>
+      </c>
+      <c r="K311" s="4">
+        <v>1000</v>
+      </c>
+      <c r="L311">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="312" spans="10:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="J312" s="89">
+        <v>58</v>
+      </c>
+      <c r="K312" s="4">
+        <v>1000</v>
+      </c>
+      <c r="L312">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="313" spans="10:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="J313" s="89">
+        <v>58.5</v>
+      </c>
+      <c r="K313" s="4">
+        <v>1000</v>
+      </c>
+      <c r="L313">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="314" spans="10:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="J314" s="89">
+        <v>59</v>
+      </c>
+      <c r="K314" s="4">
+        <v>1000</v>
+      </c>
+      <c r="L314">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="315" spans="10:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="J315" s="89">
+        <v>59.5</v>
+      </c>
+      <c r="K315" s="4">
+        <v>1000</v>
+      </c>
+      <c r="L315">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="316" spans="10:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="J316" s="89">
+        <v>60</v>
+      </c>
+      <c r="K316" s="4">
+        <v>1000</v>
+      </c>
+      <c r="L316">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="317" spans="10:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="J317" s="89">
+        <v>60.5</v>
+      </c>
+      <c r="K317" s="4">
+        <v>1000</v>
+      </c>
+      <c r="L317">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="318" spans="10:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="J318" s="89">
+        <v>61</v>
+      </c>
+      <c r="K318" s="4">
+        <v>1000</v>
+      </c>
+      <c r="L318">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="319" spans="10:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="J319" s="89">
+        <v>61.5</v>
+      </c>
+      <c r="K319" s="4">
+        <v>1000</v>
+      </c>
+      <c r="L319">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="320" spans="10:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="J320" s="89">
+        <v>62</v>
+      </c>
+      <c r="K320" s="4">
+        <v>1000</v>
+      </c>
+      <c r="L320">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="321" spans="10:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="J321" s="89">
+        <v>62.5</v>
+      </c>
+      <c r="K321" s="4">
+        <v>1000</v>
+      </c>
+      <c r="L321">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="322" spans="10:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="J322" s="89">
+        <v>63</v>
+      </c>
+      <c r="K322" s="4">
+        <v>1000</v>
+      </c>
+      <c r="L322">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="323" spans="10:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="J323" s="89">
+        <v>63.5</v>
+      </c>
+      <c r="K323" s="4">
+        <v>1000</v>
+      </c>
+      <c r="L323">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="324" spans="10:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="J324" s="89">
+        <v>64</v>
+      </c>
+      <c r="K324" s="4">
+        <v>1000</v>
+      </c>
+      <c r="L324">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="325" spans="10:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="J325" s="89">
+        <v>64.5</v>
+      </c>
+      <c r="K325" s="4">
+        <v>1000</v>
+      </c>
+      <c r="L325">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="326" spans="10:12" x14ac:dyDescent="0.3">
+      <c r="J326" s="88"/>
+    </row>
   </sheetData>
+  <mergeCells count="3">
+    <mergeCell ref="L237:L238"/>
+    <mergeCell ref="D231:E231"/>
+    <mergeCell ref="R219:T219"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
   <drawing r:id="rId2"/>

--- a/Semestres/Proyectos de Inversión/Proyectos Inversion 1228.xlsx
+++ b/Semestres/Proyectos de Inversión/Proyectos Inversion 1228.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25427"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25601"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\scago\Documents\GitHub\IA_School\Semestres\Proyectos de Inversión\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FAAFE43A-6B2C-40AD-9014-25FF58C710E6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6A092857-FD9B-4535-BE05-E1BA3409C79F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="2" xr2:uid="{C388AD20-7519-495C-B934-88533359A101}"/>
+    <workbookView xWindow="-113" yWindow="-113" windowWidth="24267" windowHeight="13023" activeTab="2" xr2:uid="{C388AD20-7519-495C-B934-88533359A101}"/>
   </bookViews>
   <sheets>
     <sheet name="Cap5" sheetId="2" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="276" uniqueCount="179">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="333" uniqueCount="185">
   <si>
     <t>Ejercicios</t>
   </si>
@@ -634,17 +634,36 @@
   <si>
     <t>Corrida financiera</t>
   </si>
+  <si>
+    <t>año</t>
+  </si>
+  <si>
+    <t>p=?</t>
+  </si>
+  <si>
+    <t>Guía Examen</t>
+  </si>
+  <si>
+    <t>rn</t>
+  </si>
+  <si>
+    <t>f=?</t>
+  </si>
+  <si>
+    <t>compra</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="3">
+  <numFmts count="4">
+    <numFmt numFmtId="6" formatCode="&quot;$&quot;#,##0;[Red]\-&quot;$&quot;#,##0"/>
     <numFmt numFmtId="8" formatCode="&quot;$&quot;#,##0.00;[Red]\-&quot;$&quot;#,##0.00"/>
     <numFmt numFmtId="44" formatCode="_-&quot;$&quot;* #,##0.00_-;\-&quot;$&quot;* #,##0.00_-;_-&quot;$&quot;* &quot;-&quot;??_-;_-@_-"/>
-    <numFmt numFmtId="172" formatCode="0.0"/>
+    <numFmt numFmtId="164" formatCode="0.0"/>
   </numFmts>
-  <fonts count="13" x14ac:knownFonts="1">
+  <fonts count="15" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -744,8 +763,20 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="24"/>
+      <color theme="1"/>
+      <name val="Consolas"/>
+      <family val="3"/>
+    </font>
+    <font>
+      <sz val="28"/>
+      <color theme="5" tint="-0.249977111117893"/>
+      <name val="Consolas"/>
+      <family val="3"/>
+    </font>
   </fonts>
-  <fills count="12">
+  <fills count="13">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -812,8 +843,14 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFF4E5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="21">
+  <borders count="26">
     <border>
       <left/>
       <right/>
@@ -1051,13 +1088,74 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color theme="5" tint="-0.249977111117893"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="5" tint="-0.249977111117893"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color theme="5" tint="-0.249977111117893"/>
+      </top>
+      <bottom style="thin">
+        <color theme="5" tint="-0.249977111117893"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="5" tint="-0.249977111117893"/>
+      </top>
+      <bottom style="thin">
+        <color theme="5" tint="-0.249977111117893"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color theme="5" tint="-0.249977111117893"/>
+      </right>
+      <top style="thin">
+        <color theme="5" tint="-0.249977111117893"/>
+      </top>
+      <bottom style="thin">
+        <color theme="5" tint="-0.249977111117893"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="92">
+  <cellXfs count="105">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="4" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="8" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -1128,9 +1226,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="10" fontId="8" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="8" fillId="9" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -1145,9 +1240,6 @@
     </xf>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="9" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="6" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -1177,7 +1269,7 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1188,17 +1280,11 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="8" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="8" fontId="11" fillId="10" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
-    <xf numFmtId="8" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="44" fontId="0" fillId="9" borderId="0" xfId="2" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="10" fontId="10" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1214,16 +1300,57 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="172" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="172" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="8" fontId="12" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="9" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="6" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="14" fillId="12" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="12" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="12" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="6" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="25" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="8" fontId="0" fillId="11" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Moneda" xfId="2" builtinId="4"/>
@@ -1232,6 +1359,11 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <mruColors>
+      <color rgb="FFFFF4E5"/>
+    </mruColors>
+  </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -1254,9 +1386,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
-      <xdr:colOff>857235</xdr:colOff>
+      <xdr:colOff>560231</xdr:colOff>
       <xdr:row>94</xdr:row>
-      <xdr:rowOff>158750</xdr:rowOff>
+      <xdr:rowOff>158751</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -1298,7 +1430,7 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>5</xdr:col>
-      <xdr:colOff>619640</xdr:colOff>
+      <xdr:colOff>416181</xdr:colOff>
       <xdr:row>94</xdr:row>
       <xdr:rowOff>57740</xdr:rowOff>
     </xdr:to>
@@ -1427,8 +1559,8 @@
       <xdr:rowOff>25400</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>209551</xdr:colOff>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>930314</xdr:colOff>
       <xdr:row>110</xdr:row>
       <xdr:rowOff>50889</xdr:rowOff>
     </xdr:to>
@@ -1472,7 +1604,7 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>8</xdr:col>
-      <xdr:colOff>590516</xdr:colOff>
+      <xdr:colOff>293512</xdr:colOff>
       <xdr:row>122</xdr:row>
       <xdr:rowOff>171450</xdr:rowOff>
     </xdr:to>
@@ -1516,7 +1648,7 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
-      <xdr:colOff>189970</xdr:colOff>
+      <xdr:colOff>96426</xdr:colOff>
       <xdr:row>120</xdr:row>
       <xdr:rowOff>177740</xdr:rowOff>
     </xdr:to>
@@ -1581,9 +1713,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>8</xdr:col>
-      <xdr:colOff>608331</xdr:colOff>
+      <xdr:colOff>311327</xdr:colOff>
       <xdr:row>135</xdr:row>
-      <xdr:rowOff>17773</xdr:rowOff>
+      <xdr:rowOff>17774</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -1625,7 +1757,7 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>8</xdr:col>
-      <xdr:colOff>586741</xdr:colOff>
+      <xdr:colOff>289737</xdr:colOff>
       <xdr:row>158</xdr:row>
       <xdr:rowOff>77844</xdr:rowOff>
     </xdr:to>
@@ -1668,8 +1800,8 @@
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>495301</xdr:colOff>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>832529</xdr:colOff>
       <xdr:row>181</xdr:row>
       <xdr:rowOff>42895</xdr:rowOff>
     </xdr:to>
@@ -1713,7 +1845,7 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>8</xdr:col>
-      <xdr:colOff>519282</xdr:colOff>
+      <xdr:colOff>222278</xdr:colOff>
       <xdr:row>201</xdr:row>
       <xdr:rowOff>38100</xdr:rowOff>
     </xdr:to>
@@ -1756,8 +1888,8 @@
       <xdr:rowOff>1</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>198121</xdr:colOff>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>918884</xdr:colOff>
       <xdr:row>214</xdr:row>
       <xdr:rowOff>48963</xdr:rowOff>
     </xdr:to>
@@ -1800,8 +1932,8 @@
       <xdr:rowOff>167640</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>160020</xdr:colOff>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>880783</xdr:colOff>
       <xdr:row>218</xdr:row>
       <xdr:rowOff>88308</xdr:rowOff>
     </xdr:to>
@@ -1845,9 +1977,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>8</xdr:col>
-      <xdr:colOff>361668</xdr:colOff>
+      <xdr:colOff>62793</xdr:colOff>
       <xdr:row>227</xdr:row>
-      <xdr:rowOff>60960</xdr:rowOff>
+      <xdr:rowOff>60961</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -1891,10 +2023,10 @@
       <xdr:col>10</xdr:col>
       <xdr:colOff>622560</xdr:colOff>
       <xdr:row>238</xdr:row>
-      <xdr:rowOff>17040</xdr:rowOff>
+      <xdr:rowOff>17039</xdr:rowOff>
     </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing">
+      <mc:Choice Requires="xdr14">
         <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId17">
           <xdr14:nvContentPartPr>
             <xdr14:cNvPr id="13" name="Entrada de lápiz 12">
@@ -1913,7 +2045,7 @@
           </xdr14:xfrm>
         </xdr:contentPart>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:pic>
           <xdr:nvPicPr>
             <xdr:cNvPr id="13" name="Entrada de lápiz 12">
@@ -1954,12 +2086,12 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
-      <xdr:colOff>14520</xdr:colOff>
+      <xdr:colOff>14519</xdr:colOff>
       <xdr:row>216</xdr:row>
       <xdr:rowOff>38400</xdr:rowOff>
     </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing">
+      <mc:Choice Requires="xdr14">
         <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId19">
           <xdr14:nvContentPartPr>
             <xdr14:cNvPr id="14" name="Entrada de lápiz 13">
@@ -1978,7 +2110,7 @@
           </xdr14:xfrm>
         </xdr:contentPart>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:pic>
           <xdr:nvPicPr>
             <xdr:cNvPr id="14" name="Entrada de lápiz 13">
@@ -2019,7 +2151,7 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
-      <xdr:colOff>845821</xdr:colOff>
+      <xdr:colOff>548817</xdr:colOff>
       <xdr:row>258</xdr:row>
       <xdr:rowOff>180815</xdr:rowOff>
     </xdr:to>
@@ -2063,9 +2195,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
-      <xdr:colOff>960120</xdr:colOff>
+      <xdr:colOff>663116</xdr:colOff>
       <xdr:row>268</xdr:row>
-      <xdr:rowOff>56869</xdr:rowOff>
+      <xdr:rowOff>56870</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -2106,10 +2238,10 @@
       <xdr:rowOff>7620</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>15241</xdr:colOff>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>736004</xdr:colOff>
       <xdr:row>277</xdr:row>
-      <xdr:rowOff>120031</xdr:rowOff>
+      <xdr:rowOff>120030</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -2134,6 +2266,314 @@
         <a:xfrm>
           <a:off x="1" y="50947320"/>
           <a:ext cx="6050280" cy="827603"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>151074</xdr:colOff>
+      <xdr:row>331</xdr:row>
+      <xdr:rowOff>15903</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>537882</xdr:colOff>
+      <xdr:row>337</xdr:row>
+      <xdr:rowOff>152798</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="10" name="Imagen 9">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B17C5C03-6DD9-EE15-2940-B2690A5A2DCD}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId24"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1550504" y="63022039"/>
+          <a:ext cx="7013051" cy="1281883"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>349</xdr:row>
+      <xdr:rowOff>127220</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>553784</xdr:colOff>
+      <xdr:row>357</xdr:row>
+      <xdr:rowOff>104495</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="11" name="Imagen 10">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5D212760-C317-134E-B8F4-D761B6944EC8}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId25"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1399430" y="66480855"/>
+          <a:ext cx="7180027" cy="1503925"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>373</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>418612</xdr:colOff>
+      <xdr:row>380</xdr:row>
+      <xdr:rowOff>115190</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="20" name="Imagen 19">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{86407BA6-1717-A903-268D-1AD0D8D31FFA}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId26"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1399430" y="70854073"/>
+          <a:ext cx="7044855" cy="1451009"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>18709</xdr:colOff>
+      <xdr:row>389</xdr:row>
+      <xdr:rowOff>168382</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>514496</xdr:colOff>
+      <xdr:row>397</xdr:row>
+      <xdr:rowOff>132511</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="21" name="Imagen 20">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CB14F01A-E429-5C44-60A4-8E4A5DC9DCFB}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId27"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1421881" y="73685207"/>
+          <a:ext cx="7137464" cy="1460845"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>673522</xdr:colOff>
+      <xdr:row>406</xdr:row>
+      <xdr:rowOff>102900</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>551914</xdr:colOff>
+      <xdr:row>409</xdr:row>
+      <xdr:rowOff>30142</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="23" name="Imagen 22">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5EC4282A-44C7-D724-A901-C29AF30D8020}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId28"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1384462" y="76697347"/>
+          <a:ext cx="7212301" cy="488510"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>7951</xdr:colOff>
+      <xdr:row>419</xdr:row>
+      <xdr:rowOff>95415</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>83841</xdr:colOff>
+      <xdr:row>423</xdr:row>
+      <xdr:rowOff>111319</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="25" name="Imagen 24">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{62684B7C-EEFD-5141-187B-79284075CB3E}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId29"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1407381" y="79520994"/>
+          <a:ext cx="7693239" cy="779229"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>40895</xdr:colOff>
+      <xdr:row>434</xdr:row>
+      <xdr:rowOff>93143</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>463447</xdr:colOff>
+      <xdr:row>444</xdr:row>
+      <xdr:rowOff>75134</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="27" name="Imagen 26">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E5D0D96B-EA9B-36B4-F0C5-72E877D73362}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId30"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1438052" y="83059324"/>
+          <a:ext cx="4614026" cy="1913023"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2170,7 +2610,7 @@
       <inkml:brushProperty name="ignorePressure" value="1"/>
     </inkml:brush>
   </inkml:definitions>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0">0 36,'7'6,"0"0,1-1,-1 1,1-2,0 1,0-1,0-1,1 1,-1-1,1-1,0 0,0 0,11 0,16 1,0-2,38-3,-9 0,2272 2,-1830 18,32 0,186-6,-36-6,-401-8,34-7,7 0,-182 0,-16 1,-78 4,91-17,-36 4,151-21,-198 27,-1 3,81 1,-102 7,-23 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0">0 36,'7'6,"1"0,0-1,-1 1,2-2,-1 1,0-1,1-1,0 1,-1-1,2-1,-1 0,0 0,12 0,17 1,-1-2,40-3,-9 0,2368 2,-1908 18,34 0,193-6,-37-6,-417-8,34-7,8 0,-190 0,-16 1,-82 4,95-17,-37 4,157-21,-207 27,0 3,84 1,-107 7,-23 0</inkml:trace>
 </inkml:ink>
 </file>
 
@@ -2199,7 +2639,7 @@
     </inkml:brush>
   </inkml:definitions>
   <inkml:trace contextRef="#ctx0" brushRef="#br0">830 0 24575,'-6'1'0,"1"0"0,0 1 0,0-1 0,0 1 0,0 0 0,1 0 0,-1 1 0,0-1 0,-6 6 0,-3 1 0,-49 29 0,-92 77 0,68-48 0,-10 12 0,-104 108 0,157-144 0,25-25-682,-34 26-1,42-37-6143</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="1135.66">0 36 24575,'6'1'0,"-1"0"0,0 0 0,1 0 0,-1 0 0,0 1 0,0 0 0,0 0 0,0 0 0,-1 1 0,1 0 0,0-1 0,-1 2 0,0-1 0,7 7 0,7 8 0,29 38 0,-28-32 0,60 62 0,171 145 0,-241-224 0,1 0 0,0-1 0,16 8 0,2 1 0,-25-12 0,1 1 0,0-1 0,-1 1 0,0 0 0,1 0 0,-2 0 0,1 0 0,0 1 0,-1-1 0,4 10 0,13 21 0,-12-26-136,0 1-1,1-2 1,0 1-1,0-1 1,1 0-1,0-1 1,0 0-1,1-1 0,18 10 1,-18-11-6690</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="1135.65">0 36 24575,'6'1'0,"-1"0"0,0 0 0,1 0 0,-1 0 0,0 1 0,0 0 0,0 0 0,0 0 0,-1 1 0,1 0 0,0-1 0,-1 2 0,0-1 0,7 7 0,7 8 0,29 38 0,-28-32 0,60 62 0,171 145 0,-241-224 0,1 0 0,0-1 0,16 8 0,2 1 0,-25-12 0,1 1 0,0-1 0,-1 1 0,0 0 0,1 0 0,-2 0 0,1 0 0,0 1 0,-1-1 0,4 10 0,13 21 0,-12-26-136,0 1-1,1-2 1,0 1-1,0-1 1,1 0-1,0-1 1,0 0-1,1-1 0,18 10 1,-18-11-6690</inkml:trace>
 </inkml:ink>
 </file>
 
@@ -2255,7 +2695,7 @@
       <inkml:brushProperty name="height" value="0.05" units="cm"/>
     </inkml:brush>
   </inkml:definitions>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0">63 1 24575,'44'16'0,"-33"-12"0,1 0 0,-1 0 0,0 1 0,0 1 0,-1 0 0,1 0 0,-1 1 0,-1 0 0,1 0 0,-1 1 0,-1 1 0,1 0 0,11 15 0,-17-17 0,0-1 0,-1 0 0,1 1 0,-1-1 0,-1 1 0,1 0 0,-1 0 0,0-1 0,0 1 0,-1 0 0,0 0 0,0 0 0,-1 0 0,0 0 0,0-1 0,-1 1 0,1 0 0,-1-1 0,-1 1 0,1-1 0,-1 1 0,-1-1 0,1 0 0,-1-1 0,0 1 0,-5 5 0,6-8 0,0 1 0,-1-1 0,2 1 0,-1-1 0,0 1 0,1 0 0,-1 0 0,1 0 0,0 0 0,1 1 0,-1-1 0,-1 7 0,3-8 0,0 0 0,0 1 0,0-1 0,1 0 0,-1 0 0,1 0 0,0 0 0,0 0 0,0 0 0,0 0 0,0 0 0,1-1 0,-1 1 0,1 0 0,0-1 0,0 1 0,0-1 0,0 0 0,2 3 0,4 4 0,1 1 0,0-1 0,0-1 0,1 0 0,-1 0 0,2-1 0,-1 0 0,1-1 0,0 0 0,15 6 0,-33-14 0,1 1 0,-1 0 0,0 1 0,0 0 0,1 0 0,-1 0 0,0 1 0,0 0 0,1 0 0,-1 1 0,1 0 0,-1 0 0,1 0 0,0 1 0,-1 0 0,1 0 0,1 1 0,-1 0 0,1 0 0,-1 0 0,1 0 0,0 1 0,0 0 0,1 0 0,0 0 0,0 1 0,0-1 0,0 1 0,1 0 0,0 0 0,-4 11 0,4 6 0,0-1 0,1 1 0,2 0 0,0 0 0,6 35 0,-4-46 0,1-1 0,0 0 0,7 16 0,-6-19 0,-1-1 0,0 1 0,-1 0 0,0 1 0,0-1 0,0 0 0,0 13 0,-3-19 0,1 0 0,0 0 0,0 0 0,-1 0 0,0 0 0,1 0 0,-1 0 0,0-1 0,0 1 0,0 0 0,0 0 0,0-1 0,0 1 0,-3 2 0,1-1 0,0-1 0,0 0 0,0 0 0,0 0 0,-1 0 0,1-1 0,-1 1 0,1-1 0,-1 0 0,-5 1 0,-8 1-58,-1-1-1,0-1 1,1-1-1,-20-1 1,14 0-1015,4 0-5753</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0">63 1 24575,'44'17'0,"-33"-13"0,1 0 0,-1 1 0,0 0 0,0 1 0,-1 1 0,1-1 0,-1 1 0,-1 1 0,1-1 0,-1 2 0,-1 0 0,1 1 0,11 15 0,-17-17 0,0-2 0,-1 0 0,1 2 0,-1-2 0,-1 2 0,1-1 0,-1 0 0,0 0 0,0 0 0,-1 1 0,0-1 0,0 0 0,-1 1 0,0-1 0,0 0 0,-1 0 0,1 0 0,-1 0 0,-1 0 0,1 0 0,-1 0 0,-1-1 0,1 1 0,-1-2 0,0 1 0,-5 6 0,6-9 0,0 1 0,-1 0 0,2 0 0,-1-1 0,0 1 0,1 0 0,-1 1 0,1-1 0,0 0 0,1 1 0,-1 0 0,-1 6 0,3-7 0,0-1 0,0 1 0,0-1 0,1 0 0,-1 0 0,1 1 0,0-1 0,0 0 0,0 0 0,0 0 0,0 1 0,1-2 0,-1 1 0,1 0 0,0-1 0,0 1 0,0-1 0,0 1 0,2 2 0,4 4 0,1 2 0,0-1 0,0-2 0,1 0 0,-1 1 0,2-2 0,-1 1 0,1-2 0,0 0 0,15 7 0,-33-15 0,1 1 0,-1 0 0,0 1 0,0 0 0,1 0 0,-1 0 0,0 1 0,0 0 0,1 0 0,-1 1 0,1 0 0,-1 0 0,1 1 0,0 0 0,-1 0 0,1 0 0,1 1 0,-1 1 0,1-1 0,-1 0 0,1 0 0,0 2 0,0-1 0,1 0 0,0 1 0,0 0 0,0-1 0,0 2 0,1-1 0,0 0 0,-4 12 0,4 7 0,0-2 0,1 1 0,2 1 0,0-1 0,6 37 0,-4-48 0,1-1 0,0-1 0,7 18 0,-6-20 0,-1-2 0,0 1 0,-1 1 0,0 0 0,0 0 0,0-1 0,0 15 0,-3-21 0,1 0 0,0 0 0,0 0 0,-1 0 0,0 0 0,1 0 0,-1 1 0,0-2 0,0 1 0,0 0 0,0 0 0,0-1 0,0 1 0,-3 2 0,1 0 0,0-2 0,0 0 0,0 0 0,0 0 0,-1 0 0,1-1 0,-1 1 0,1-1 0,-1 0 0,-5 2 0,-8 0-58,-1-1-1,0-1 1,1-1-1,-20-1 1,14 0-1015,4 0-5753</inkml:trace>
 </inkml:ink>
 </file>
 
@@ -2589,7 +3029,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="15.05" x14ac:dyDescent="0.3"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -2601,7 +3041,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="15.05" x14ac:dyDescent="0.3"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -2609,21 +3049,21 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{436C86D1-4AF5-4366-94BB-1C393905B18C}">
-  <dimension ref="A1:X326"/>
+  <dimension ref="A1:X451"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A267" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="N276" sqref="N276"/>
+    <sheetView tabSelected="1" topLeftCell="A430" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="D451" sqref="D451"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="15.05" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="9.88671875" customWidth="1"/>
     <col min="2" max="2" width="9.6640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.44140625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="9.6640625" customWidth="1"/>
+    <col min="3" max="3" width="9.33203125" customWidth="1"/>
+    <col min="4" max="4" width="15.6640625" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="10" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="11.44140625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="10.6640625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="12" customWidth="1"/>
     <col min="8" max="8" width="14.21875" customWidth="1"/>
     <col min="9" max="9" width="9.6640625" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="10.33203125" bestFit="1" customWidth="1"/>
@@ -2641,7 +3081,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A1" t="s">
+      <c r="A1" s="89" t="s">
         <v>0</v>
       </c>
     </row>
@@ -2650,17 +3090,17 @@
         <v>12</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:6" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:6" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:6" ht="14.4" x14ac:dyDescent="0.3">
       <c r="D5" t="s">
         <v>11</v>
       </c>
@@ -2676,7 +3116,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="7" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B7" s="5">
         <v>0</v>
       </c>
@@ -2688,7 +3128,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="8" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B8" s="5">
         <v>1</v>
       </c>
@@ -2700,7 +3140,7 @@
         <v>98974.679088473727</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:6" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B9" s="5">
         <v>2</v>
       </c>
@@ -2708,7 +3148,7 @@
         <v>-10000</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:6" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B10" s="5">
         <v>3</v>
       </c>
@@ -2716,7 +3156,7 @@
         <v>-10000</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:6" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B11" s="5">
         <v>4</v>
       </c>
@@ -2724,7 +3164,7 @@
         <v>-10000</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:6" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B12" s="5">
         <v>5</v>
       </c>
@@ -2732,7 +3172,7 @@
         <v>-10000</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:6" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B13" s="5">
         <v>6</v>
       </c>
@@ -2740,7 +3180,7 @@
         <v>-10000</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:6" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B14" s="5">
         <v>7</v>
       </c>
@@ -2748,7 +3188,7 @@
         <v>-10000</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:6" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B15" s="5">
         <v>8</v>
       </c>
@@ -2769,7 +3209,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="20" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:15" ht="14.4" x14ac:dyDescent="0.3">
       <c r="E20" t="s">
         <v>15</v>
       </c>
@@ -2785,7 +3225,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="22" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:15" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B22">
         <v>0</v>
       </c>
@@ -2796,7 +3236,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="23" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:15" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B23">
         <v>1</v>
       </c>
@@ -2807,7 +3247,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="24" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:15" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B24">
         <v>2</v>
       </c>
@@ -2815,7 +3255,7 @@
         <v>6000</v>
       </c>
     </row>
-    <row r="25" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B25">
         <v>3</v>
       </c>
@@ -2829,7 +3269,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="26" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:15" ht="15.65" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B26">
         <v>4</v>
       </c>
@@ -2853,7 +3293,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="27" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B27">
         <v>5</v>
       </c>
@@ -2887,7 +3327,7 @@
         <v>-39091.393492787291</v>
       </c>
     </row>
-    <row r="28" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:15" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B28">
         <v>6</v>
       </c>
@@ -2895,7 +3335,7 @@
         <v>6000</v>
       </c>
     </row>
-    <row r="29" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:15" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B29">
         <v>7</v>
       </c>
@@ -2903,7 +3343,7 @@
         <v>6000</v>
       </c>
     </row>
-    <row r="30" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:15" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B30">
         <v>8</v>
       </c>
@@ -2911,7 +3351,7 @@
         <v>6000</v>
       </c>
     </row>
-    <row r="31" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:15" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B31">
         <v>9</v>
       </c>
@@ -2934,12 +3374,12 @@
         <v>5</v>
       </c>
     </row>
-    <row r="36" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:11" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A36" s="1">
         <v>5306.13</v>
       </c>
     </row>
-    <row r="37" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:11" ht="14.4" x14ac:dyDescent="0.3">
       <c r="C37" t="s">
         <v>15</v>
       </c>
@@ -2961,7 +3401,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="40" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:11" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B40" s="5">
         <v>0</v>
       </c>
@@ -2975,7 +3415,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="41" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:11" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B41" s="5">
         <v>1</v>
       </c>
@@ -2989,7 +3429,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="42" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:11" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B42" s="5">
         <v>2</v>
       </c>
@@ -2997,7 +3437,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="43" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:11" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B43" s="5">
         <v>3</v>
       </c>
@@ -3038,7 +3478,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="45" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:11" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B45" s="5">
         <v>5</v>
       </c>
@@ -3049,7 +3489,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="46" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:11" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B46" s="5">
         <v>6</v>
       </c>
@@ -3073,7 +3513,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="47" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:11" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B47" s="5">
         <v>7</v>
       </c>
@@ -3084,7 +3524,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="48" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:11" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B48" s="5">
         <v>8</v>
       </c>
@@ -3095,7 +3535,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="49" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:4" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B49" s="5">
         <v>9</v>
       </c>
@@ -3106,7 +3546,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="50" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:4" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B50" s="5">
         <v>10</v>
       </c>
@@ -3117,7 +3557,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="51" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:4" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B51" s="5">
         <v>11</v>
       </c>
@@ -3128,7 +3568,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="52" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:4" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B52" s="5">
         <v>12</v>
       </c>
@@ -3139,7 +3579,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="53" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:4" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B53" s="5">
         <v>13</v>
       </c>
@@ -3150,7 +3590,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="54" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:4" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B54" s="5">
         <v>14</v>
       </c>
@@ -3161,7 +3601,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="55" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:4" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B55" s="5">
         <v>15</v>
       </c>
@@ -3172,7 +3612,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="56" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:4" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B56" s="5">
         <v>16</v>
       </c>
@@ -3183,7 +3623,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="57" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:4" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B57" s="5">
         <v>17</v>
       </c>
@@ -3194,7 +3634,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="58" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:4" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B58" s="5">
         <v>18</v>
       </c>
@@ -3205,22 +3645,22 @@
         <v>33</v>
       </c>
     </row>
-    <row r="62" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:4" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A62" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="63" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:4" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A63" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="64" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:4" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A64" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="66" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="66" spans="2:8" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B66" s="9" t="s">
         <v>48</v>
       </c>
@@ -3242,7 +3682,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="68" spans="2:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="68" spans="2:8" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B68" s="5">
         <v>0</v>
       </c>
@@ -3259,7 +3699,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="69" spans="2:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="69" spans="2:8" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B69" s="5">
         <v>1</v>
       </c>
@@ -3275,7 +3715,7 @@
         <v>-17269.90799747748</v>
       </c>
     </row>
-    <row r="70" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="70" spans="2:8" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B70" s="5">
         <v>2</v>
       </c>
@@ -3283,7 +3723,7 @@
         <v>-3000</v>
       </c>
     </row>
-    <row r="71" spans="2:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="71" spans="2:8" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B71" s="5">
         <v>3</v>
       </c>
@@ -3297,7 +3737,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="72" spans="2:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="72" spans="2:8" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B72" s="5">
         <v>4</v>
       </c>
@@ -3309,7 +3749,7 @@
         <v>28130.860342031832</v>
       </c>
     </row>
-    <row r="73" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="73" spans="2:8" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B73" s="5">
         <v>5</v>
       </c>
@@ -3317,7 +3757,7 @@
         <v>-4000</v>
       </c>
     </row>
-    <row r="74" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="74" spans="2:8" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B74" s="5">
         <v>6</v>
       </c>
@@ -3325,7 +3765,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="75" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="75" spans="2:8" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B75" s="5">
         <v>7</v>
       </c>
@@ -3340,7 +3780,7 @@
         <v>9773.3677606646488</v>
       </c>
     </row>
-    <row r="76" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="76" spans="2:8" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B76" s="5">
         <v>8</v>
       </c>
@@ -3355,7 +3795,7 @@
         <v>4432.3663313671877</v>
       </c>
     </row>
-    <row r="77" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="77" spans="2:8" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B77" s="5">
         <v>9</v>
       </c>
@@ -3370,7 +3810,7 @@
         <v>5105.1262500000003</v>
       </c>
     </row>
-    <row r="78" spans="2:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="78" spans="2:8" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B78" s="5">
         <v>10</v>
       </c>
@@ -3388,24 +3828,24 @@
         <v>8820</v>
       </c>
     </row>
-    <row r="79" spans="2:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="79" spans="2:8" thickBot="1" x14ac:dyDescent="0.35">
       <c r="F79" s="4">
         <f>SUM(F75:F78)</f>
         <v>28130.860342031836</v>
       </c>
     </row>
     <row r="81" spans="1:9" s="12" customFormat="1" ht="6.6" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="82" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:9" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B82">
         <v>42</v>
       </c>
     </row>
-    <row r="83" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:9" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B83">
         <v>48</v>
       </c>
     </row>
-    <row r="84" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:9" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B84">
         <v>411</v>
       </c>
@@ -3445,18 +3885,18 @@
         <v>61</v>
       </c>
     </row>
-    <row r="95" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:9" ht="14.4" x14ac:dyDescent="0.3">
       <c r="I95" s="13"/>
     </row>
-    <row r="96" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:9" ht="14.4" x14ac:dyDescent="0.3">
       <c r="F96" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="97" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="97" spans="2:9" ht="14.4" x14ac:dyDescent="0.3">
       <c r="D97" s="9"/>
     </row>
-    <row r="98" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="98" spans="2:9" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B98">
         <v>0</v>
       </c>
@@ -3465,7 +3905,7 @@
       </c>
       <c r="D98" s="9"/>
     </row>
-    <row r="99" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="99" spans="2:9" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B99">
         <v>1</v>
       </c>
@@ -3473,7 +3913,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="100" spans="2:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="100" spans="2:9" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B100">
         <v>2</v>
       </c>
@@ -3484,7 +3924,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="101" spans="2:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="101" spans="2:9" thickBot="1" x14ac:dyDescent="0.35">
       <c r="E101" t="s">
         <v>70</v>
       </c>
@@ -3493,12 +3933,12 @@
         <v>-7052.1345759952401</v>
       </c>
     </row>
-    <row r="103" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="103" spans="2:9" ht="14.4" x14ac:dyDescent="0.3">
       <c r="E103" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="104" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="104" spans="2:9" ht="14.4" x14ac:dyDescent="0.3">
       <c r="E104" s="15" t="s">
         <v>72</v>
       </c>
@@ -3522,8 +3962,8 @@
         <v>75</v>
       </c>
     </row>
-    <row r="106" spans="2:9" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="107" spans="2:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="106" spans="2:9" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="107" spans="2:9" thickBot="1" x14ac:dyDescent="0.35">
       <c r="E107" t="s">
         <v>65</v>
       </c>
@@ -3535,7 +3975,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="112" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="112" spans="2:9" ht="14.4" x14ac:dyDescent="0.3">
       <c r="C112" s="9" t="s">
         <v>72</v>
       </c>
@@ -3546,7 +3986,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="113" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:11" ht="14.4" x14ac:dyDescent="0.3">
       <c r="C113" s="9" t="s">
         <v>74</v>
       </c>
@@ -3554,8 +3994,8 @@
         <v>12</v>
       </c>
     </row>
-    <row r="114" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="115" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="114" spans="1:11" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="115" spans="1:11" thickBot="1" x14ac:dyDescent="0.35">
       <c r="C115" t="s">
         <v>65</v>
       </c>
@@ -3567,21 +4007,21 @@
         <v>78</v>
       </c>
     </row>
-    <row r="117" spans="1:11" s="19" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="117" spans="1:11" s="19" customFormat="1" ht="14.4" x14ac:dyDescent="0.3"/>
     <row r="118" spans="1:11" ht="21" x14ac:dyDescent="0.4">
       <c r="B118" s="20" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="119" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="119" spans="1:11" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A119" s="37"/>
     </row>
-    <row r="120" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="120" spans="1:11" ht="14.4" x14ac:dyDescent="0.3">
       <c r="K120" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="125" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="125" spans="1:11" thickBot="1" x14ac:dyDescent="0.35">
       <c r="C125" t="s">
         <v>80</v>
       </c>
@@ -3592,7 +4032,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="126" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="126" spans="1:11" thickBot="1" x14ac:dyDescent="0.35">
       <c r="C126" t="s">
         <v>82</v>
       </c>
@@ -3610,7 +4050,7 @@
         <v>-339.72298410447178</v>
       </c>
     </row>
-    <row r="127" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="127" spans="1:11" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B127" s="21" t="s">
         <v>85</v>
       </c>
@@ -3624,7 +4064,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="128" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="128" spans="1:11" ht="14.4" x14ac:dyDescent="0.3">
       <c r="C128" t="s">
         <v>84</v>
       </c>
@@ -3654,7 +4094,7 @@
       <c r="U131" s="27"/>
       <c r="V131" s="27"/>
     </row>
-    <row r="132" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="132" spans="1:24" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A132" s="37"/>
       <c r="P132" s="27" t="s">
         <v>102</v>
@@ -3666,7 +4106,7 @@
       <c r="U132" s="27"/>
       <c r="V132" s="27"/>
     </row>
-    <row r="135" spans="1:24" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="135" spans="1:24" ht="15.65" thickBot="1" x14ac:dyDescent="0.35">
       <c r="O135" t="s">
         <v>102</v>
       </c>
@@ -3680,12 +4120,10 @@
         <v>111</v>
       </c>
     </row>
-    <row r="136" spans="1:24" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="136" spans="1:24" thickBot="1" x14ac:dyDescent="0.35">
       <c r="L136" s="5">
         <v>0</v>
       </c>
-      <c r="M136" s="73"/>
-      <c r="N136" s="73"/>
       <c r="O136" s="29">
         <v>5000</v>
       </c>
@@ -3703,7 +4141,7 @@
         <v>0.06</v>
       </c>
     </row>
-    <row r="137" spans="1:24" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="137" spans="1:24" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B137" t="s">
         <v>80</v>
       </c>
@@ -3727,8 +4165,6 @@
       <c r="L137" s="5">
         <v>1</v>
       </c>
-      <c r="M137" s="73"/>
-      <c r="N137" s="73"/>
       <c r="O137" s="29">
         <v>-1000</v>
       </c>
@@ -3742,7 +4178,7 @@
         <v>-3465.10561269966</v>
       </c>
     </row>
-    <row r="138" spans="1:24" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="138" spans="1:24" ht="15.65" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B138" t="s">
         <v>98</v>
       </c>
@@ -3764,8 +4200,6 @@
       <c r="L138" s="5">
         <v>2</v>
       </c>
-      <c r="M138" s="73"/>
-      <c r="N138" s="73"/>
       <c r="O138" s="29">
         <v>-1000</v>
       </c>
@@ -3783,7 +4217,7 @@
         <v>-4999.9963175117227</v>
       </c>
     </row>
-    <row r="139" spans="1:24" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="139" spans="1:24" ht="15.65" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B139" t="s">
         <v>100</v>
       </c>
@@ -3810,8 +4244,6 @@
       <c r="L139" s="5">
         <v>3</v>
       </c>
-      <c r="M139" s="73"/>
-      <c r="N139" s="73"/>
       <c r="O139" s="29">
         <v>-1000</v>
       </c>
@@ -3829,7 +4261,7 @@
         <v>3.6824882772634737E-3</v>
       </c>
     </row>
-    <row r="140" spans="1:24" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="140" spans="1:24" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B140" t="s">
         <v>103</v>
       </c>
@@ -3842,8 +4274,6 @@
       <c r="L140" s="5">
         <v>4</v>
       </c>
-      <c r="M140" s="73"/>
-      <c r="N140" s="73"/>
       <c r="O140" s="29">
         <v>-1000</v>
       </c>
@@ -3854,15 +4284,13 @@
         <v>-1000</v>
       </c>
     </row>
-    <row r="141" spans="1:24" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="141" spans="1:24" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B141" t="s">
         <v>8</v>
       </c>
       <c r="L141" s="5">
         <v>5</v>
       </c>
-      <c r="M141" s="73"/>
-      <c r="N141" s="73"/>
       <c r="O141" s="29"/>
       <c r="U141" s="5">
         <v>4</v>
@@ -3871,7 +4299,7 @@
         <v>-1000</v>
       </c>
     </row>
-    <row r="142" spans="1:24" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="142" spans="1:24" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B142" t="s">
         <v>74</v>
       </c>
@@ -3885,8 +4313,8 @@
         <v>-2054.0300000000002</v>
       </c>
     </row>
-    <row r="147" spans="1:11" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="148" spans="1:11" s="26" customFormat="1" ht="8.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="147" spans="1:11" ht="20.350000000000001" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="148" spans="1:11" s="26" customFormat="1" ht="8.4499999999999993" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B148" s="19"/>
       <c r="C148" s="19"/>
       <c r="D148" s="19"/>
@@ -3897,28 +4325,28 @@
       <c r="I148" s="19"/>
       <c r="J148" s="19"/>
     </row>
-    <row r="149" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="149" spans="1:11" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A149" s="37"/>
       <c r="K149" t="s">
         <v>87</v>
       </c>
     </row>
-    <row r="150" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="150" spans="1:11" ht="14.4" x14ac:dyDescent="0.3">
       <c r="K150" t="s">
         <v>88</v>
       </c>
     </row>
-    <row r="153" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="153" spans="1:11" ht="14.4" x14ac:dyDescent="0.3">
       <c r="K153" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="154" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="154" spans="1:11" ht="14.4" x14ac:dyDescent="0.3">
       <c r="K154" t="s">
         <v>90</v>
       </c>
     </row>
-    <row r="160" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="160" spans="1:11" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B160" s="3">
         <v>0.06</v>
       </c>
@@ -3926,7 +4354,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="161" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="161" spans="1:5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A161" t="s">
         <v>91</v>
       </c>
@@ -3938,7 +4366,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="162" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="162" spans="1:5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A162" s="23" t="s">
         <v>95</v>
       </c>
@@ -3952,7 +4380,7 @@
         <v>-5000</v>
       </c>
     </row>
-    <row r="163" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="163" spans="1:5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B163" s="4">
         <v>1300</v>
       </c>
@@ -3963,7 +4391,7 @@
         <v>1300</v>
       </c>
     </row>
-    <row r="164" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="164" spans="1:5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B164" s="4">
         <v>1240</v>
       </c>
@@ -3974,7 +4402,7 @@
         <v>1240</v>
       </c>
     </row>
-    <row r="165" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="165" spans="1:5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B165" s="4">
         <v>1180</v>
       </c>
@@ -3985,7 +4413,7 @@
         <v>1180</v>
       </c>
     </row>
-    <row r="166" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="166" spans="1:5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B166" s="4">
         <v>1120</v>
       </c>
@@ -3996,7 +4424,7 @@
         <v>1120</v>
       </c>
     </row>
-    <row r="167" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="167" spans="1:5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B167" s="4">
         <v>1060</v>
       </c>
@@ -4007,8 +4435,8 @@
         <v>1060</v>
       </c>
     </row>
-    <row r="169" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="170" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="169" spans="1:5" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="170" spans="1:5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A170" t="s">
         <v>19</v>
       </c>
@@ -4021,7 +4449,7 @@
         <v>4516.3147077633776</v>
       </c>
     </row>
-    <row r="171" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="171" spans="1:5" ht="15.65" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A171" t="s">
         <v>94</v>
       </c>
@@ -4040,31 +4468,31 @@
         <v>96</v>
       </c>
     </row>
-    <row r="173" spans="1:5" s="19" customFormat="1" ht="19.2" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="175" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="173" spans="1:5" s="19" customFormat="1" ht="19.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="175" spans="1:5" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A175" s="37"/>
       <c r="B175" t="s">
         <v>112</v>
       </c>
     </row>
-    <row r="176" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="176" spans="1:5" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B176" s="32" t="s">
         <v>113</v>
       </c>
     </row>
-    <row r="177" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="177" spans="2:2" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B177" s="32" t="s">
         <v>114</v>
       </c>
     </row>
-    <row r="178" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="178" spans="2:2" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B178" t="s">
         <v>115</v>
       </c>
     </row>
-    <row r="195" spans="1:17" s="19" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="196" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="197" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="195" spans="1:17" s="19" customFormat="1" ht="14.4" x14ac:dyDescent="0.3"/>
+    <row r="196" spans="1:17" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="197" spans="1:17" thickBot="1" x14ac:dyDescent="0.35">
       <c r="C197" s="15" t="s">
         <v>144</v>
       </c>
@@ -4078,19 +4506,19 @@
         <f>FV(K200,K199,0,K201)</f>
         <v>-944.78400000000011</v>
       </c>
-      <c r="M197" s="74"/>
-      <c r="N197" s="74"/>
-      <c r="Q197" s="64" t="s">
+      <c r="M197" s="2"/>
+      <c r="N197" s="2"/>
+      <c r="Q197" s="62" t="s">
         <v>149</v>
       </c>
     </row>
-    <row r="198" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="198" spans="1:17" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A198" s="37"/>
       <c r="J198" s="33" t="s">
         <v>118</v>
       </c>
       <c r="K198" s="33"/>
-      <c r="Q198" s="64" t="s">
+      <c r="Q198" s="62" t="s">
         <v>150</v>
       </c>
     </row>
@@ -4105,21 +4533,21 @@
         <v>99</v>
       </c>
     </row>
-    <row r="200" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="200" spans="1:17" ht="14.4" x14ac:dyDescent="0.3">
       <c r="J200" s="33" t="s">
         <v>145</v>
       </c>
       <c r="K200" s="34">
         <v>0.08</v>
       </c>
-      <c r="L200" s="65" t="s">
+      <c r="L200" s="63" t="s">
         <v>146</v>
       </c>
-      <c r="M200" s="65"/>
-      <c r="N200" s="65"/>
-      <c r="O200" s="65"/>
-    </row>
-    <row r="201" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="M200" s="63"/>
+      <c r="N200" s="63"/>
+      <c r="O200" s="63"/>
+    </row>
+    <row r="201" spans="1:17" ht="14.4" x14ac:dyDescent="0.3">
       <c r="J201" s="33" t="s">
         <v>116</v>
       </c>
@@ -4138,7 +4566,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="203" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="203" spans="1:17" ht="14.4" x14ac:dyDescent="0.3">
       <c r="J203" s="33" t="s">
         <v>103</v>
       </c>
@@ -4150,12 +4578,12 @@
         <v>146</v>
       </c>
     </row>
-    <row r="210" spans="1:21" s="19" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="211" spans="1:21" ht="18" x14ac:dyDescent="0.35">
-      <c r="C211" s="66" t="s">
+    <row r="210" spans="1:21" s="19" customFormat="1" ht="14.4" x14ac:dyDescent="0.3"/>
+    <row r="211" spans="1:21" ht="18.2" x14ac:dyDescent="0.35">
+      <c r="C211" s="64" t="s">
         <v>144</v>
       </c>
-      <c r="K211" s="47" t="s">
+      <c r="K211" s="46" t="s">
         <v>151</v>
       </c>
       <c r="N211">
@@ -4164,7 +4592,7 @@
       <c r="O211" t="s">
         <v>159</v>
       </c>
-      <c r="P211" s="47" t="s">
+      <c r="P211" s="46" t="s">
         <v>152</v>
       </c>
       <c r="S211" t="s">
@@ -4179,7 +4607,7 @@
       <c r="J212" t="s">
         <v>157</v>
       </c>
-      <c r="K212" s="71">
+      <c r="K212" s="68">
         <f>FV(K215,K214,,K216)</f>
         <v>3307.5</v>
       </c>
@@ -4193,12 +4621,12 @@
         <f>FV(P219,P214,,P216)</f>
         <v>3313.4583035442365</v>
       </c>
-      <c r="U212" s="72">
+      <c r="U212" s="69">
         <f>P212-K212</f>
         <v>5.9583035442365144</v>
       </c>
     </row>
-    <row r="213" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="213" spans="1:21" ht="14.4" x14ac:dyDescent="0.3">
       <c r="J213" t="s">
         <v>118</v>
       </c>
@@ -4235,14 +4663,14 @@
         <v>154</v>
       </c>
     </row>
-    <row r="215" spans="1:21" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="215" spans="1:21" thickBot="1" x14ac:dyDescent="0.35">
       <c r="J215" t="s">
         <v>145</v>
       </c>
       <c r="K215" s="10">
         <v>0.05</v>
       </c>
-      <c r="N215" s="75">
+      <c r="N215" s="70">
         <v>79.2</v>
       </c>
       <c r="O215" t="s">
@@ -4252,18 +4680,18 @@
         <v>0.05</v>
       </c>
     </row>
-    <row r="216" spans="1:21" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="216" spans="1:21" thickBot="1" x14ac:dyDescent="0.35">
       <c r="J216" t="s">
         <v>121</v>
       </c>
-      <c r="K216" s="67">
+      <c r="K216" s="65">
         <v>-3000</v>
       </c>
-      <c r="P216" s="67">
+      <c r="P216" s="65">
         <v>-3000</v>
       </c>
     </row>
-    <row r="217" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="217" spans="1:21" ht="14.4" x14ac:dyDescent="0.3">
       <c r="J217" t="s">
         <v>103</v>
       </c>
@@ -4271,7 +4699,7 @@
         <f>EFFECT(K215,K218)</f>
         <v>5.0000000000000044E-2</v>
       </c>
-      <c r="P217" s="68">
+      <c r="P217" s="66">
         <f>EFFECT(P215,P218)</f>
         <v>5.0945336914062445E-2</v>
       </c>
@@ -4279,7 +4707,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="218" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="218" spans="1:21" ht="14.4" x14ac:dyDescent="0.3">
       <c r="J218" t="s">
         <v>74</v>
       </c>
@@ -4290,32 +4718,32 @@
         <v>4</v>
       </c>
     </row>
-    <row r="219" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="219" spans="1:21" ht="14.4" x14ac:dyDescent="0.3">
       <c r="J219" t="s">
         <v>64</v>
       </c>
-      <c r="K219" s="69">
+      <c r="K219" s="67">
         <f>K215/K218</f>
         <v>0.05</v>
       </c>
       <c r="L219" t="s">
         <v>78</v>
       </c>
-      <c r="P219" s="69">
+      <c r="P219" s="67">
         <f>P215/P218</f>
         <v>1.2500000000000001E-2</v>
       </c>
       <c r="Q219" t="s">
         <v>155</v>
       </c>
-      <c r="R219" s="70" t="s">
+      <c r="R219" s="88" t="s">
         <v>156</v>
       </c>
-      <c r="S219" s="70"/>
-      <c r="T219" s="70"/>
-    </row>
-    <row r="223" spans="1:21" s="19" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="225" spans="2:22" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="S219" s="88"/>
+      <c r="T219" s="88"/>
+    </row>
+    <row r="223" spans="1:21" s="19" customFormat="1" ht="14.4" x14ac:dyDescent="0.3"/>
+    <row r="225" spans="2:22" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B225" s="39" t="s">
         <v>123</v>
       </c>
@@ -4331,7 +4759,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="226" spans="2:22" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="226" spans="2:22" thickBot="1" x14ac:dyDescent="0.35">
       <c r="J226" t="s">
         <v>32</v>
       </c>
@@ -4349,7 +4777,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="227" spans="2:22" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="227" spans="2:22" thickBot="1" x14ac:dyDescent="0.35">
       <c r="J227" t="s">
         <v>117</v>
       </c>
@@ -4369,7 +4797,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="228" spans="2:22" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="228" spans="2:22" ht="18.649999999999999" thickBot="1" x14ac:dyDescent="0.4">
       <c r="J228" t="s">
         <v>124</v>
       </c>
@@ -4393,7 +4821,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="229" spans="2:22" x14ac:dyDescent="0.3">
+    <row r="229" spans="2:22" ht="14.4" x14ac:dyDescent="0.3">
       <c r="J229" t="s">
         <v>116</v>
       </c>
@@ -4416,7 +4844,7 @@
         <v>1000000</v>
       </c>
     </row>
-    <row r="230" spans="2:22" x14ac:dyDescent="0.3">
+    <row r="230" spans="2:22" ht="14.4" x14ac:dyDescent="0.3">
       <c r="T230" s="5">
         <v>1</v>
       </c>
@@ -4428,21 +4856,21 @@
         <v>131</v>
       </c>
     </row>
-    <row r="231" spans="2:22" ht="18" x14ac:dyDescent="0.35">
-      <c r="D231" s="54" t="s">
+    <row r="231" spans="2:22" ht="18.2" x14ac:dyDescent="0.35">
+      <c r="D231" s="87" t="s">
         <v>143</v>
       </c>
-      <c r="E231" s="54"/>
-      <c r="K231" s="55" t="s">
+      <c r="E231" s="87"/>
+      <c r="K231" s="53" t="s">
         <v>130</v>
       </c>
-      <c r="L231" s="56"/>
-      <c r="M231" s="56"/>
-      <c r="N231" s="56"/>
-      <c r="O231" s="56"/>
-      <c r="P231" s="56"/>
-      <c r="Q231" s="56"/>
-      <c r="R231" s="57"/>
+      <c r="L231" s="54"/>
+      <c r="M231" s="54"/>
+      <c r="N231" s="54"/>
+      <c r="O231" s="54"/>
+      <c r="P231" s="54"/>
+      <c r="Q231" s="54"/>
+      <c r="R231" s="55"/>
       <c r="T231" s="5">
         <v>2</v>
       </c>
@@ -4451,15 +4879,15 @@
         <v>-49900</v>
       </c>
     </row>
-    <row r="232" spans="2:22" x14ac:dyDescent="0.3">
-      <c r="K232" s="58"/>
-      <c r="L232" s="59"/>
-      <c r="M232" s="59"/>
-      <c r="N232" s="59"/>
-      <c r="O232" s="59"/>
-      <c r="P232" s="59"/>
-      <c r="Q232" s="59"/>
-      <c r="R232" s="60"/>
+    <row r="232" spans="2:22" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="K232" s="56"/>
+      <c r="L232" s="57"/>
+      <c r="M232" s="57"/>
+      <c r="N232" s="57"/>
+      <c r="O232" s="57"/>
+      <c r="P232" s="57"/>
+      <c r="Q232" s="57"/>
+      <c r="R232" s="58"/>
       <c r="T232" s="5">
         <v>3</v>
       </c>
@@ -4468,16 +4896,16 @@
         <v>-49900</v>
       </c>
     </row>
-    <row r="233" spans="2:22" x14ac:dyDescent="0.3">
+    <row r="233" spans="2:22" ht="14.4" x14ac:dyDescent="0.3">
       <c r="J233" s="41"/>
-      <c r="K233" s="61"/>
-      <c r="L233" s="62"/>
-      <c r="M233" s="62"/>
-      <c r="N233" s="62"/>
-      <c r="O233" s="62"/>
-      <c r="P233" s="62"/>
-      <c r="Q233" s="62"/>
-      <c r="R233" s="63"/>
+      <c r="K233" s="59"/>
+      <c r="L233" s="60"/>
+      <c r="M233" s="60"/>
+      <c r="N233" s="60"/>
+      <c r="O233" s="60"/>
+      <c r="P233" s="60"/>
+      <c r="Q233" s="60"/>
+      <c r="R233" s="61"/>
       <c r="T233" s="5">
         <v>4</v>
       </c>
@@ -4486,7 +4914,7 @@
         <v>-49900</v>
       </c>
     </row>
-    <row r="234" spans="2:22" x14ac:dyDescent="0.3">
+    <row r="234" spans="2:22" ht="14.4" x14ac:dyDescent="0.3">
       <c r="T234" s="5">
         <v>5</v>
       </c>
@@ -4495,7 +4923,7 @@
         <v>-49900</v>
       </c>
     </row>
-    <row r="235" spans="2:22" x14ac:dyDescent="0.3">
+    <row r="235" spans="2:22" ht="14.4" x14ac:dyDescent="0.3">
       <c r="T235" s="5">
         <v>6</v>
       </c>
@@ -4505,16 +4933,16 @@
       </c>
     </row>
     <row r="236" spans="2:22" ht="18" x14ac:dyDescent="0.35">
-      <c r="K236" s="48" t="s">
+      <c r="K236" s="47" t="s">
         <v>132</v>
       </c>
       <c r="P236" s="33" t="s">
         <v>74</v>
       </c>
-      <c r="Q236" s="52">
+      <c r="Q236" s="51">
         <v>12</v>
       </c>
-      <c r="R236" s="49" t="s">
+      <c r="R236" s="48" t="s">
         <v>135</v>
       </c>
       <c r="T236" s="5">
@@ -4529,14 +4957,14 @@
       <c r="K237" t="s">
         <v>129</v>
       </c>
-      <c r="L237" s="46" t="s">
+      <c r="L237" s="86" t="s">
         <v>133</v>
       </c>
       <c r="M237" s="33"/>
       <c r="N237" s="33"/>
       <c r="P237" s="33"/>
       <c r="Q237" s="33"/>
-      <c r="R237" s="50" t="s">
+      <c r="R237" s="49" t="s">
         <v>136</v>
       </c>
       <c r="T237" s="5">
@@ -4551,7 +4979,7 @@
       <c r="K238" t="s">
         <v>128</v>
       </c>
-      <c r="L238" s="46"/>
+      <c r="L238" s="86"/>
       <c r="M238" s="33"/>
       <c r="N238" s="33"/>
       <c r="T238" s="5">
@@ -4562,14 +4990,14 @@
         <v>-49900</v>
       </c>
     </row>
-    <row r="239" spans="2:22" x14ac:dyDescent="0.3">
+    <row r="239" spans="2:22" ht="14.4" x14ac:dyDescent="0.3">
       <c r="O239" t="s">
         <v>139</v>
       </c>
       <c r="P239" t="s">
         <v>134</v>
       </c>
-      <c r="Q239" s="51">
+      <c r="Q239" s="50">
         <f>P228*Q236</f>
         <v>0.17950110901728755</v>
       </c>
@@ -4584,7 +5012,7 @@
         <v>-49900</v>
       </c>
     </row>
-    <row r="240" spans="2:22" x14ac:dyDescent="0.3">
+    <row r="240" spans="2:22" ht="14.4" x14ac:dyDescent="0.3">
       <c r="K240" t="s">
         <v>64</v>
       </c>
@@ -4599,7 +5027,7 @@
         <v>-49900</v>
       </c>
     </row>
-    <row r="241" spans="9:21" x14ac:dyDescent="0.3">
+    <row r="241" spans="9:21" ht="14.4" x14ac:dyDescent="0.3">
       <c r="T241" s="5">
         <v>12</v>
       </c>
@@ -4608,14 +5036,14 @@
         <v>-49900</v>
       </c>
     </row>
-    <row r="242" spans="9:21" x14ac:dyDescent="0.3">
+    <row r="242" spans="9:21" ht="14.4" x14ac:dyDescent="0.3">
       <c r="O242" t="s">
         <v>140</v>
       </c>
       <c r="P242" t="s">
         <v>103</v>
       </c>
-      <c r="Q242" s="53">
+      <c r="Q242" s="52">
         <f>EFFECT(Q239,Q236)</f>
         <v>0.19503063572988344</v>
       </c>
@@ -4627,7 +5055,7 @@
         <v>-49900</v>
       </c>
     </row>
-    <row r="243" spans="9:21" x14ac:dyDescent="0.3">
+    <row r="243" spans="9:21" ht="14.4" x14ac:dyDescent="0.3">
       <c r="Q243" t="s">
         <v>141</v>
       </c>
@@ -4651,7 +5079,7 @@
         <v>-49900</v>
       </c>
     </row>
-    <row r="245" spans="9:21" x14ac:dyDescent="0.3">
+    <row r="245" spans="9:21" ht="14.4" x14ac:dyDescent="0.3">
       <c r="T245" s="5">
         <v>16</v>
       </c>
@@ -4660,7 +5088,7 @@
         <v>-49900</v>
       </c>
     </row>
-    <row r="246" spans="9:21" x14ac:dyDescent="0.3">
+    <row r="246" spans="9:21" ht="14.4" x14ac:dyDescent="0.3">
       <c r="T246" s="5">
         <v>17</v>
       </c>
@@ -4669,7 +5097,7 @@
         <v>-49900</v>
       </c>
     </row>
-    <row r="247" spans="9:21" x14ac:dyDescent="0.3">
+    <row r="247" spans="9:21" ht="14.4" x14ac:dyDescent="0.3">
       <c r="T247" s="5">
         <v>18</v>
       </c>
@@ -4678,7 +5106,7 @@
         <v>-49900</v>
       </c>
     </row>
-    <row r="248" spans="9:21" x14ac:dyDescent="0.3">
+    <row r="248" spans="9:21" ht="14.4" x14ac:dyDescent="0.3">
       <c r="T248" s="5">
         <v>19</v>
       </c>
@@ -4687,7 +5115,7 @@
         <v>-49900</v>
       </c>
     </row>
-    <row r="249" spans="9:21" x14ac:dyDescent="0.3">
+    <row r="249" spans="9:21" ht="14.4" x14ac:dyDescent="0.3">
       <c r="T249" s="5">
         <v>20</v>
       </c>
@@ -4696,7 +5124,7 @@
         <v>-49900</v>
       </c>
     </row>
-    <row r="250" spans="9:21" x14ac:dyDescent="0.3">
+    <row r="250" spans="9:21" ht="14.4" x14ac:dyDescent="0.3">
       <c r="T250" s="5">
         <v>21</v>
       </c>
@@ -4705,7 +5133,7 @@
         <v>-49900</v>
       </c>
     </row>
-    <row r="251" spans="9:21" x14ac:dyDescent="0.3">
+    <row r="251" spans="9:21" ht="14.4" x14ac:dyDescent="0.3">
       <c r="T251" s="5">
         <v>22</v>
       </c>
@@ -4714,7 +5142,7 @@
         <v>-49900</v>
       </c>
     </row>
-    <row r="252" spans="9:21" x14ac:dyDescent="0.3">
+    <row r="252" spans="9:21" ht="14.4" x14ac:dyDescent="0.3">
       <c r="T252" s="5">
         <v>23</v>
       </c>
@@ -4723,7 +5151,7 @@
         <v>-49900</v>
       </c>
     </row>
-    <row r="253" spans="9:21" x14ac:dyDescent="0.3">
+    <row r="253" spans="9:21" ht="14.4" x14ac:dyDescent="0.3">
       <c r="T253" s="5">
         <v>24</v>
       </c>
@@ -4732,8 +5160,8 @@
         <v>-49900</v>
       </c>
     </row>
-    <row r="255" spans="9:21" s="19" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="256" spans="9:21" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="255" spans="9:21" s="19" customFormat="1" ht="14.4" x14ac:dyDescent="0.3"/>
+    <row r="256" spans="9:21" thickBot="1" x14ac:dyDescent="0.35">
       <c r="I256" t="s">
         <v>119</v>
       </c>
@@ -4752,7 +5180,7 @@
       <c r="K257" t="s">
         <v>166</v>
       </c>
-      <c r="L257" s="78">
+      <c r="L257" s="72">
         <f>RATE(J258,J257,J259)</f>
         <v>9.9784921115874444E-3</v>
       </c>
@@ -4760,18 +5188,18 @@
         <v>83</v>
       </c>
     </row>
-    <row r="258" spans="9:14" x14ac:dyDescent="0.3">
+    <row r="258" spans="9:14" ht="14.4" x14ac:dyDescent="0.3">
       <c r="I258" t="s">
         <v>117</v>
       </c>
       <c r="J258" s="9">
         <v>50</v>
       </c>
-      <c r="K258" s="76" t="s">
+      <c r="K258" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="259" spans="9:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="259" spans="9:14" thickBot="1" x14ac:dyDescent="0.35">
       <c r="I259" t="s">
         <v>121</v>
       </c>
@@ -4779,20 +5207,20 @@
         <v>2000</v>
       </c>
     </row>
-    <row r="260" spans="9:14" x14ac:dyDescent="0.3">
-      <c r="I260" s="83" t="s">
+    <row r="260" spans="9:14" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="I260" s="77" t="s">
         <v>165</v>
       </c>
-      <c r="J260" s="84">
+      <c r="J260" s="78">
         <f>L257</f>
         <v>9.9784921115874444E-3</v>
       </c>
     </row>
-    <row r="261" spans="9:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="I261" s="85" t="s">
+    <row r="261" spans="9:14" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="I261" s="79" t="s">
         <v>145</v>
       </c>
-      <c r="J261" s="86">
+      <c r="J261" s="80">
         <f>J260*J262</f>
         <v>0.11974190533904933</v>
       </c>
@@ -4800,7 +5228,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="262" spans="9:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="262" spans="9:14" thickBot="1" x14ac:dyDescent="0.35">
       <c r="I262" t="s">
         <v>164</v>
       </c>
@@ -4810,16 +5238,16 @@
       <c r="K262" t="s">
         <v>168</v>
       </c>
-      <c r="L262" s="79" t="s">
+      <c r="L262" s="73" t="s">
         <v>169</v>
       </c>
-      <c r="M262" s="80"/>
-    </row>
-    <row r="263" spans="9:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="I263" s="81" t="s">
+      <c r="M262" s="74"/>
+    </row>
+    <row r="263" spans="9:14" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="I263" s="75" t="s">
         <v>103</v>
       </c>
-      <c r="J263" s="82">
+      <c r="J263" s="76">
         <f>EFFECT(J261,J262)</f>
         <v>0.12653711581100935</v>
       </c>
@@ -4827,13 +5255,13 @@
         <v>168</v>
       </c>
     </row>
-    <row r="265" spans="9:14" s="19" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="266" spans="9:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="265" spans="9:14" s="19" customFormat="1" ht="14.4" x14ac:dyDescent="0.3"/>
+    <row r="266" spans="9:14" thickBot="1" x14ac:dyDescent="0.35">
       <c r="I266" t="s">
         <v>119</v>
       </c>
     </row>
-    <row r="267" spans="9:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="267" spans="9:14" thickBot="1" x14ac:dyDescent="0.35">
       <c r="I267" t="s">
         <v>171</v>
       </c>
@@ -4842,7 +5270,7 @@
         <v>-116.24433964754144</v>
       </c>
     </row>
-    <row r="268" spans="9:14" x14ac:dyDescent="0.3">
+    <row r="268" spans="9:14" ht="14.4" x14ac:dyDescent="0.3">
       <c r="I268" t="s">
         <v>117</v>
       </c>
@@ -4852,10 +5280,10 @@
       <c r="K268" t="s">
         <v>83</v>
       </c>
-      <c r="L268" s="51" t="s">
+      <c r="L268" s="50" t="s">
         <v>64</v>
       </c>
-      <c r="M268" s="51">
+      <c r="M268" s="50">
         <f>J271/J272</f>
         <v>0.01</v>
       </c>
@@ -4863,12 +5291,12 @@
         <v>86</v>
       </c>
     </row>
-    <row r="269" spans="9:14" x14ac:dyDescent="0.3">
+    <row r="269" spans="9:14" ht="14.4" x14ac:dyDescent="0.3">
       <c r="I269" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="270" spans="9:14" x14ac:dyDescent="0.3">
+    <row r="270" spans="9:14" ht="14.4" x14ac:dyDescent="0.3">
       <c r="I270" t="s">
         <v>121</v>
       </c>
@@ -4879,7 +5307,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="271" spans="9:14" x14ac:dyDescent="0.3">
+    <row r="271" spans="9:14" ht="14.4" x14ac:dyDescent="0.3">
       <c r="I271" t="s">
         <v>72</v>
       </c>
@@ -4890,7 +5318,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="272" spans="9:14" x14ac:dyDescent="0.3">
+    <row r="272" spans="9:14" ht="14.4" x14ac:dyDescent="0.3">
       <c r="I272" t="s">
         <v>74</v>
       </c>
@@ -4898,8 +5326,8 @@
         <v>12</v>
       </c>
     </row>
-    <row r="274" spans="2:14" s="19" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="275" spans="2:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="274" spans="2:14" s="19" customFormat="1" ht="14.4" x14ac:dyDescent="0.3"/>
+    <row r="275" spans="2:14" thickBot="1" x14ac:dyDescent="0.35">
       <c r="J275" t="s">
         <v>176</v>
       </c>
@@ -4907,71 +5335,71 @@
         <v>178</v>
       </c>
     </row>
-    <row r="276" spans="2:14" ht="26.4" thickBot="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="J276" s="89">
+    <row r="276" spans="2:14" ht="26.45" thickBot="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="J276" s="83">
         <v>40</v>
       </c>
       <c r="K276" s="5">
         <v>0</v>
       </c>
-      <c r="L276" s="90" t="s">
+      <c r="L276" s="84" t="s">
         <v>50</v>
       </c>
-      <c r="M276" s="87" t="s">
+      <c r="M276" s="81" t="s">
         <v>19</v>
       </c>
-      <c r="N276" s="91">
+      <c r="N276" s="85">
         <f>NPV(C288,K277:K325)</f>
         <v>15373.616000035881</v>
       </c>
     </row>
-    <row r="277" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="J277" s="89">
+    <row r="277" spans="2:14" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="J277" s="83">
         <v>40.5</v>
       </c>
       <c r="K277" s="5">
         <v>0</v>
       </c>
     </row>
-    <row r="278" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="J278" s="89">
+    <row r="278" spans="2:14" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="J278" s="83">
         <v>41</v>
       </c>
       <c r="K278" s="5">
         <v>0</v>
       </c>
     </row>
-    <row r="279" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="J279" s="89">
+    <row r="279" spans="2:14" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="J279" s="83">
         <v>41.5</v>
       </c>
       <c r="K279" s="5">
         <v>0</v>
       </c>
     </row>
-    <row r="280" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="J280" s="89">
+    <row r="280" spans="2:14" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="J280" s="83">
         <v>42</v>
       </c>
       <c r="K280" s="5">
         <v>0</v>
       </c>
     </row>
-    <row r="281" spans="2:14" x14ac:dyDescent="0.3">
+    <row r="281" spans="2:14" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B281">
         <v>40</v>
       </c>
       <c r="C281" t="s">
         <v>172</v>
       </c>
-      <c r="J281" s="89">
+      <c r="J281" s="83">
         <v>42.5</v>
       </c>
       <c r="K281" s="5">
         <v>0</v>
       </c>
     </row>
-    <row r="282" spans="2:14" x14ac:dyDescent="0.3">
+    <row r="282" spans="2:14" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B282" t="s">
         <v>117</v>
       </c>
@@ -4981,14 +5409,14 @@
       <c r="D282" t="s">
         <v>173</v>
       </c>
-      <c r="J282" s="89">
+      <c r="J282" s="83">
         <v>43</v>
       </c>
       <c r="K282" s="5">
         <v>0</v>
       </c>
     </row>
-    <row r="283" spans="2:14" x14ac:dyDescent="0.3">
+    <row r="283" spans="2:14" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B283" t="s">
         <v>118</v>
       </c>
@@ -4998,37 +5426,37 @@
       <c r="D283" t="s">
         <v>174</v>
       </c>
-      <c r="J283" s="89">
+      <c r="J283" s="83">
         <v>43.5</v>
       </c>
       <c r="K283" s="5">
         <v>0</v>
       </c>
     </row>
-    <row r="284" spans="2:14" x14ac:dyDescent="0.3">
+    <row r="284" spans="2:14" ht="14.4" x14ac:dyDescent="0.3">
       <c r="C284" s="9"/>
-      <c r="J284" s="89">
+      <c r="J284" s="83">
         <v>44</v>
       </c>
       <c r="K284" s="5">
         <v>0</v>
       </c>
     </row>
-    <row r="285" spans="2:14" x14ac:dyDescent="0.3">
+    <row r="285" spans="2:14" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B285">
         <v>50</v>
       </c>
       <c r="C285" s="9" t="s">
         <v>175</v>
       </c>
-      <c r="J285" s="89">
+      <c r="J285" s="83">
         <v>44.5</v>
       </c>
       <c r="K285" s="5">
         <v>0</v>
       </c>
     </row>
-    <row r="286" spans="2:14" x14ac:dyDescent="0.3">
+    <row r="286" spans="2:14" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B286" t="s">
         <v>72</v>
       </c>
@@ -5038,100 +5466,100 @@
       <c r="D286" t="s">
         <v>78</v>
       </c>
-      <c r="J286" s="89">
+      <c r="J286" s="83">
         <v>45</v>
       </c>
       <c r="K286" s="5">
         <v>0</v>
       </c>
     </row>
-    <row r="287" spans="2:14" x14ac:dyDescent="0.3">
+    <row r="287" spans="2:14" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B287" t="s">
         <v>74</v>
       </c>
       <c r="C287" s="9">
         <v>2</v>
       </c>
-      <c r="J287" s="89">
+      <c r="J287" s="83">
         <v>45.5</v>
       </c>
       <c r="K287" s="5">
         <v>0</v>
       </c>
     </row>
-    <row r="288" spans="2:14" x14ac:dyDescent="0.3">
+    <row r="288" spans="2:14" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B288" t="s">
         <v>177</v>
       </c>
-      <c r="C288" s="77">
+      <c r="C288" s="71">
         <f>C286/C287</f>
         <v>0.02</v>
       </c>
-      <c r="J288" s="89">
+      <c r="J288" s="83">
         <v>46</v>
       </c>
       <c r="K288" s="5">
         <v>0</v>
       </c>
     </row>
-    <row r="289" spans="10:12" x14ac:dyDescent="0.3">
-      <c r="J289" s="89">
+    <row r="289" spans="10:12" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="J289" s="83">
         <v>46.5</v>
       </c>
       <c r="K289" s="5">
         <v>0</v>
       </c>
     </row>
-    <row r="290" spans="10:12" x14ac:dyDescent="0.3">
-      <c r="J290" s="89">
+    <row r="290" spans="10:12" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="J290" s="83">
         <v>47</v>
       </c>
       <c r="K290" s="5">
         <v>0</v>
       </c>
     </row>
-    <row r="291" spans="10:12" x14ac:dyDescent="0.3">
-      <c r="J291" s="89">
+    <row r="291" spans="10:12" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="J291" s="83">
         <v>47.5</v>
       </c>
       <c r="K291" s="5">
         <v>0</v>
       </c>
     </row>
-    <row r="292" spans="10:12" x14ac:dyDescent="0.3">
-      <c r="J292" s="89">
+    <row r="292" spans="10:12" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="J292" s="83">
         <v>48</v>
       </c>
       <c r="K292" s="5">
         <v>0</v>
       </c>
     </row>
-    <row r="293" spans="10:12" x14ac:dyDescent="0.3">
-      <c r="J293" s="89">
+    <row r="293" spans="10:12" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="J293" s="83">
         <v>48.5</v>
       </c>
       <c r="K293" s="5">
         <v>0</v>
       </c>
     </row>
-    <row r="294" spans="10:12" x14ac:dyDescent="0.3">
-      <c r="J294" s="89">
+    <row r="294" spans="10:12" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="J294" s="83">
         <v>49</v>
       </c>
       <c r="K294" s="5">
         <v>0</v>
       </c>
     </row>
-    <row r="295" spans="10:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="J295" s="89">
+    <row r="295" spans="10:12" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="J295" s="83">
         <v>49.5</v>
       </c>
       <c r="K295" s="5">
         <v>0</v>
       </c>
     </row>
-    <row r="296" spans="10:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="J296" s="89">
+    <row r="296" spans="10:12" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="J296" s="83">
         <v>50</v>
       </c>
       <c r="K296" s="4">
@@ -5141,8 +5569,8 @@
         <v>1</v>
       </c>
     </row>
-    <row r="297" spans="10:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="J297" s="89">
+    <row r="297" spans="10:12" ht="15.65" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="J297" s="83">
         <v>50.5</v>
       </c>
       <c r="K297" s="4">
@@ -5152,8 +5580,8 @@
         <v>2</v>
       </c>
     </row>
-    <row r="298" spans="10:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="J298" s="89">
+    <row r="298" spans="10:12" ht="15.65" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="J298" s="83">
         <v>51</v>
       </c>
       <c r="K298" s="4">
@@ -5163,8 +5591,8 @@
         <v>3</v>
       </c>
     </row>
-    <row r="299" spans="10:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="J299" s="89">
+    <row r="299" spans="10:12" ht="15.65" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="J299" s="83">
         <v>51.5</v>
       </c>
       <c r="K299" s="4">
@@ -5174,8 +5602,8 @@
         <v>4</v>
       </c>
     </row>
-    <row r="300" spans="10:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="J300" s="89">
+    <row r="300" spans="10:12" ht="15.65" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="J300" s="83">
         <v>52</v>
       </c>
       <c r="K300" s="4">
@@ -5185,8 +5613,8 @@
         <v>5</v>
       </c>
     </row>
-    <row r="301" spans="10:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="J301" s="89">
+    <row r="301" spans="10:12" ht="15.65" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="J301" s="83">
         <v>52.5</v>
       </c>
       <c r="K301" s="4">
@@ -5196,8 +5624,8 @@
         <v>6</v>
       </c>
     </row>
-    <row r="302" spans="10:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="J302" s="89">
+    <row r="302" spans="10:12" ht="15.65" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="J302" s="83">
         <v>53</v>
       </c>
       <c r="K302" s="4">
@@ -5207,8 +5635,8 @@
         <v>7</v>
       </c>
     </row>
-    <row r="303" spans="10:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="J303" s="89">
+    <row r="303" spans="10:12" ht="15.65" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="J303" s="83">
         <v>53.5</v>
       </c>
       <c r="K303" s="4">
@@ -5218,8 +5646,8 @@
         <v>8</v>
       </c>
     </row>
-    <row r="304" spans="10:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="J304" s="89">
+    <row r="304" spans="10:12" ht="15.65" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="J304" s="83">
         <v>54</v>
       </c>
       <c r="K304" s="4">
@@ -5229,8 +5657,8 @@
         <v>9</v>
       </c>
     </row>
-    <row r="305" spans="10:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="J305" s="89">
+    <row r="305" spans="10:12" ht="15.65" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="J305" s="83">
         <v>54.5</v>
       </c>
       <c r="K305" s="4">
@@ -5240,8 +5668,8 @@
         <v>10</v>
       </c>
     </row>
-    <row r="306" spans="10:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="J306" s="89">
+    <row r="306" spans="10:12" ht="15.65" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="J306" s="83">
         <v>55</v>
       </c>
       <c r="K306" s="4">
@@ -5251,8 +5679,8 @@
         <v>11</v>
       </c>
     </row>
-    <row r="307" spans="10:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="J307" s="89">
+    <row r="307" spans="10:12" ht="15.65" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="J307" s="83">
         <v>55.5</v>
       </c>
       <c r="K307" s="4">
@@ -5262,8 +5690,8 @@
         <v>12</v>
       </c>
     </row>
-    <row r="308" spans="10:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="J308" s="89">
+    <row r="308" spans="10:12" ht="15.65" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="J308" s="83">
         <v>56</v>
       </c>
       <c r="K308" s="4">
@@ -5273,8 +5701,8 @@
         <v>13</v>
       </c>
     </row>
-    <row r="309" spans="10:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="J309" s="89">
+    <row r="309" spans="10:12" ht="15.65" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="J309" s="83">
         <v>56.5</v>
       </c>
       <c r="K309" s="4">
@@ -5284,8 +5712,8 @@
         <v>14</v>
       </c>
     </row>
-    <row r="310" spans="10:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="J310" s="89">
+    <row r="310" spans="10:12" ht="15.65" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="J310" s="83">
         <v>57</v>
       </c>
       <c r="K310" s="4">
@@ -5295,8 +5723,8 @@
         <v>15</v>
       </c>
     </row>
-    <row r="311" spans="10:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="J311" s="89">
+    <row r="311" spans="10:12" ht="15.65" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="J311" s="83">
         <v>57.5</v>
       </c>
       <c r="K311" s="4">
@@ -5306,8 +5734,8 @@
         <v>16</v>
       </c>
     </row>
-    <row r="312" spans="10:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="J312" s="89">
+    <row r="312" spans="10:12" ht="15.65" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="J312" s="83">
         <v>58</v>
       </c>
       <c r="K312" s="4">
@@ -5317,8 +5745,8 @@
         <v>17</v>
       </c>
     </row>
-    <row r="313" spans="10:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="J313" s="89">
+    <row r="313" spans="10:12" ht="15.65" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="J313" s="83">
         <v>58.5</v>
       </c>
       <c r="K313" s="4">
@@ -5328,8 +5756,8 @@
         <v>18</v>
       </c>
     </row>
-    <row r="314" spans="10:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="J314" s="89">
+    <row r="314" spans="10:12" ht="15.65" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="J314" s="83">
         <v>59</v>
       </c>
       <c r="K314" s="4">
@@ -5339,8 +5767,8 @@
         <v>19</v>
       </c>
     </row>
-    <row r="315" spans="10:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="J315" s="89">
+    <row r="315" spans="10:12" ht="15.65" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="J315" s="83">
         <v>59.5</v>
       </c>
       <c r="K315" s="4">
@@ -5350,8 +5778,8 @@
         <v>20</v>
       </c>
     </row>
-    <row r="316" spans="10:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="J316" s="89">
+    <row r="316" spans="10:12" ht="15.65" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="J316" s="83">
         <v>60</v>
       </c>
       <c r="K316" s="4">
@@ -5361,8 +5789,8 @@
         <v>21</v>
       </c>
     </row>
-    <row r="317" spans="10:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="J317" s="89">
+    <row r="317" spans="10:12" ht="15.65" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="J317" s="83">
         <v>60.5</v>
       </c>
       <c r="K317" s="4">
@@ -5372,8 +5800,8 @@
         <v>22</v>
       </c>
     </row>
-    <row r="318" spans="10:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="J318" s="89">
+    <row r="318" spans="10:12" ht="15.65" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="J318" s="83">
         <v>61</v>
       </c>
       <c r="K318" s="4">
@@ -5383,8 +5811,8 @@
         <v>23</v>
       </c>
     </row>
-    <row r="319" spans="10:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="J319" s="89">
+    <row r="319" spans="10:12" ht="15.65" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="J319" s="83">
         <v>61.5</v>
       </c>
       <c r="K319" s="4">
@@ -5394,8 +5822,8 @@
         <v>24</v>
       </c>
     </row>
-    <row r="320" spans="10:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="J320" s="89">
+    <row r="320" spans="10:12" ht="15.65" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="J320" s="83">
         <v>62</v>
       </c>
       <c r="K320" s="4">
@@ -5405,8 +5833,8 @@
         <v>25</v>
       </c>
     </row>
-    <row r="321" spans="10:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="J321" s="89">
+    <row r="321" spans="1:12" ht="15.65" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="J321" s="83">
         <v>62.5</v>
       </c>
       <c r="K321" s="4">
@@ -5416,8 +5844,8 @@
         <v>26</v>
       </c>
     </row>
-    <row r="322" spans="10:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="J322" s="89">
+    <row r="322" spans="1:12" ht="15.65" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="J322" s="83">
         <v>63</v>
       </c>
       <c r="K322" s="4">
@@ -5427,8 +5855,8 @@
         <v>27</v>
       </c>
     </row>
-    <row r="323" spans="10:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="J323" s="89">
+    <row r="323" spans="1:12" ht="15.65" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="J323" s="83">
         <v>63.5</v>
       </c>
       <c r="K323" s="4">
@@ -5438,8 +5866,8 @@
         <v>28</v>
       </c>
     </row>
-    <row r="324" spans="10:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="J324" s="89">
+    <row r="324" spans="1:12" ht="15.65" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="J324" s="83">
         <v>64</v>
       </c>
       <c r="K324" s="4">
@@ -5449,8 +5877,8 @@
         <v>29</v>
       </c>
     </row>
-    <row r="325" spans="10:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="J325" s="89">
+    <row r="325" spans="1:12" ht="15.65" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="J325" s="83">
         <v>64.5</v>
       </c>
       <c r="K325" s="4">
@@ -5460,14 +5888,569 @@
         <v>30</v>
       </c>
     </row>
-    <row r="326" spans="10:12" x14ac:dyDescent="0.3">
-      <c r="J326" s="88"/>
+    <row r="326" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="J326" s="82"/>
+    </row>
+    <row r="328" spans="1:12" s="19" customFormat="1" ht="8.3000000000000007" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B328" s="94"/>
+      <c r="C328" s="94"/>
+    </row>
+    <row r="329" spans="1:12" ht="35.700000000000003" x14ac:dyDescent="0.6">
+      <c r="A329" s="95"/>
+      <c r="F329" s="96" t="s">
+        <v>181</v>
+      </c>
+      <c r="G329" s="97"/>
+      <c r="H329" s="98"/>
+    </row>
+    <row r="339" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="C339" s="92" t="s">
+        <v>119</v>
+      </c>
+      <c r="D339" s="22"/>
+      <c r="I339" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="340" spans="3:11" ht="15.65" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="C340" s="92" t="s">
+        <v>118</v>
+      </c>
+      <c r="D340" s="22"/>
+      <c r="I340" s="89">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="341" spans="3:11" ht="15.65" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="C341" s="92" t="s">
+        <v>117</v>
+      </c>
+      <c r="D341" s="22"/>
+      <c r="F341" s="4">
+        <f>NPV(D342,J341:J347)</f>
+        <v>393.77575319324615</v>
+      </c>
+      <c r="I341" s="89">
+        <v>1</v>
+      </c>
+      <c r="J341" s="90">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="342" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="C342" s="92" t="s">
+        <v>48</v>
+      </c>
+      <c r="D342" s="91">
+        <v>0.05</v>
+      </c>
+      <c r="F342" s="93"/>
+      <c r="I342" s="89">
+        <v>2</v>
+      </c>
+      <c r="J342" s="90">
+        <f>J341+10</f>
+        <v>50</v>
+      </c>
+    </row>
+    <row r="343" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="C343" s="92" t="s">
+        <v>180</v>
+      </c>
+      <c r="D343" s="22"/>
+      <c r="I343" s="89">
+        <v>3</v>
+      </c>
+      <c r="J343" s="90">
+        <f t="shared" ref="J343:J347" si="1">J342+10</f>
+        <v>60</v>
+      </c>
+    </row>
+    <row r="344" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="I344" s="89">
+        <v>4</v>
+      </c>
+      <c r="J344" s="90">
+        <f t="shared" si="1"/>
+        <v>70</v>
+      </c>
+    </row>
+    <row r="345" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="I345" s="89">
+        <v>5</v>
+      </c>
+      <c r="J345" s="90">
+        <f t="shared" si="1"/>
+        <v>80</v>
+      </c>
+    </row>
+    <row r="346" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="I346" s="89">
+        <v>6</v>
+      </c>
+      <c r="J346" s="90">
+        <f t="shared" si="1"/>
+        <v>90</v>
+      </c>
+    </row>
+    <row r="347" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="I347" s="89">
+        <v>7</v>
+      </c>
+      <c r="J347" s="90">
+        <f t="shared" si="1"/>
+        <v>100</v>
+      </c>
+    </row>
+    <row r="349" spans="3:11" ht="7.55" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C349" s="19"/>
+      <c r="D349" s="19"/>
+      <c r="E349" s="19"/>
+      <c r="F349" s="19"/>
+      <c r="G349" s="19"/>
+      <c r="H349" s="19"/>
+      <c r="I349" s="19"/>
+      <c r="J349" s="19"/>
+      <c r="K349" s="19"/>
+    </row>
+    <row r="359" spans="3:9" x14ac:dyDescent="0.3">
+      <c r="D359" t="s">
+        <v>182</v>
+      </c>
+      <c r="I359">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="360" spans="3:9" x14ac:dyDescent="0.3">
+      <c r="C360" s="92" t="s">
+        <v>119</v>
+      </c>
+      <c r="D360" s="22"/>
+      <c r="I360">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="361" spans="3:9" x14ac:dyDescent="0.3">
+      <c r="C361" s="92" t="s">
+        <v>171</v>
+      </c>
+      <c r="D361" s="22"/>
+      <c r="I361">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="362" spans="3:9" x14ac:dyDescent="0.3">
+      <c r="C362" s="92" t="s">
+        <v>117</v>
+      </c>
+      <c r="D362" s="22"/>
+      <c r="I362">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="363" spans="3:9" x14ac:dyDescent="0.3">
+      <c r="C363" s="92" t="s">
+        <v>48</v>
+      </c>
+      <c r="D363" s="91">
+        <v>0.08</v>
+      </c>
+    </row>
+    <row r="364" spans="3:9" x14ac:dyDescent="0.3">
+      <c r="C364" s="92" t="s">
+        <v>121</v>
+      </c>
+      <c r="D364" s="99">
+        <v>3000</v>
+      </c>
+    </row>
+    <row r="366" spans="3:9" x14ac:dyDescent="0.3">
+      <c r="C366" s="92" t="s">
+        <v>119</v>
+      </c>
+      <c r="D366" s="22"/>
+    </row>
+    <row r="367" spans="3:9" ht="15.65" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="C367" s="92" t="s">
+        <v>171</v>
+      </c>
+      <c r="D367" s="22"/>
+    </row>
+    <row r="368" spans="3:9" ht="15.65" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="C368" s="92" t="s">
+        <v>117</v>
+      </c>
+      <c r="D368" s="22"/>
+      <c r="F368" s="4">
+        <f>PMT(D369,I362,D370)</f>
+        <v>-1143.1549970450092</v>
+      </c>
+      <c r="G368" s="2"/>
+    </row>
+    <row r="369" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="C369" s="92" t="s">
+        <v>48</v>
+      </c>
+      <c r="D369" s="91">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="F369" s="100"/>
+    </row>
+    <row r="370" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="C370" s="92" t="s">
+        <v>121</v>
+      </c>
+      <c r="D370" s="99">
+        <v>3000</v>
+      </c>
+    </row>
+    <row r="372" spans="1:11" ht="7.55" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C372" s="19"/>
+      <c r="D372" s="19"/>
+      <c r="E372" s="19"/>
+      <c r="F372" s="19"/>
+      <c r="G372" s="19"/>
+      <c r="H372" s="19"/>
+      <c r="I372" s="19"/>
+      <c r="J372" s="19"/>
+      <c r="K372" s="19"/>
+    </row>
+    <row r="383" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A383">
+        <f>K384</f>
+        <v>0</v>
+      </c>
+      <c r="C383" s="92" t="s">
+        <v>119</v>
+      </c>
+      <c r="D383" s="22"/>
+      <c r="J383" s="2">
+        <f>PMT(D386,39,,1000000)</f>
+        <v>-646.76130041105785</v>
+      </c>
+    </row>
+    <row r="384" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="C384" s="92" t="s">
+        <v>171</v>
+      </c>
+      <c r="D384" s="22"/>
+    </row>
+    <row r="385" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="C385" s="92" t="s">
+        <v>117</v>
+      </c>
+      <c r="D385" s="22"/>
+    </row>
+    <row r="386" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="C386" s="92" t="s">
+        <v>48</v>
+      </c>
+      <c r="D386" s="91">
+        <v>0.15</v>
+      </c>
+    </row>
+    <row r="387" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="C387" s="92" t="s">
+        <v>121</v>
+      </c>
+      <c r="D387" s="99"/>
+    </row>
+    <row r="389" spans="3:11" ht="6.9" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C389" s="19"/>
+      <c r="D389" s="19"/>
+      <c r="E389" s="19"/>
+      <c r="F389" s="19"/>
+      <c r="G389" s="19"/>
+      <c r="H389" s="19"/>
+      <c r="I389" s="19"/>
+      <c r="J389" s="19"/>
+      <c r="K389" s="19"/>
+    </row>
+    <row r="400" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="C400" s="92" t="s">
+        <v>183</v>
+      </c>
+      <c r="D400" s="22">
+        <v>12000</v>
+      </c>
+      <c r="F400">
+        <v>0</v>
+      </c>
+      <c r="G400" t="s">
+        <v>184</v>
+      </c>
+      <c r="H400" s="2"/>
+    </row>
+    <row r="401" spans="3:12" x14ac:dyDescent="0.3">
+      <c r="C401" s="92" t="s">
+        <v>118</v>
+      </c>
+      <c r="D401" s="22"/>
+      <c r="F401">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="402" spans="3:12" x14ac:dyDescent="0.3">
+      <c r="C402" s="92" t="s">
+        <v>117</v>
+      </c>
+      <c r="D402" s="22"/>
+      <c r="F402">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="403" spans="3:12" x14ac:dyDescent="0.3">
+      <c r="C403" s="92" t="s">
+        <v>48</v>
+      </c>
+      <c r="D403" s="91">
+        <v>0.04</v>
+      </c>
+      <c r="F403">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="404" spans="3:12" x14ac:dyDescent="0.3">
+      <c r="C404" s="92" t="s">
+        <v>121</v>
+      </c>
+      <c r="D404" s="99"/>
+    </row>
+    <row r="406" spans="3:12" ht="6.9" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C406" s="19"/>
+      <c r="D406" s="19"/>
+      <c r="E406" s="19"/>
+      <c r="F406" s="19"/>
+      <c r="G406" s="19"/>
+      <c r="H406" s="19"/>
+      <c r="I406" s="19"/>
+      <c r="J406" s="19"/>
+      <c r="K406" s="19"/>
+    </row>
+    <row r="411" spans="3:12" ht="15.65" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="C411" t="s">
+        <v>119</v>
+      </c>
+      <c r="D411" s="9"/>
+      <c r="F411" s="33" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="412" spans="3:12" ht="21.95" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="C412" t="s">
+        <v>118</v>
+      </c>
+      <c r="D412" s="4">
+        <v>-91.7</v>
+      </c>
+      <c r="E412" t="s">
+        <v>166</v>
+      </c>
+      <c r="F412" s="72">
+        <f>RATE(D413,D412,D414)</f>
+        <v>1.5035030716562439E-2</v>
+      </c>
+      <c r="G412" t="s">
+        <v>83</v>
+      </c>
+      <c r="J412" s="9"/>
+      <c r="L412" s="33"/>
+    </row>
+    <row r="413" spans="3:12" x14ac:dyDescent="0.3">
+      <c r="C413" t="s">
+        <v>117</v>
+      </c>
+      <c r="D413" s="84">
+        <v>12</v>
+      </c>
+      <c r="E413" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="414" spans="3:12" ht="15.65" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="C414" t="s">
+        <v>121</v>
+      </c>
+      <c r="D414" s="38">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="415" spans="3:12" x14ac:dyDescent="0.3">
+      <c r="C415" s="77" t="s">
+        <v>165</v>
+      </c>
+      <c r="D415" s="78">
+        <f>F412</f>
+        <v>1.5035030716562439E-2</v>
+      </c>
+    </row>
+    <row r="416" spans="3:12" ht="15.65" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="C416" s="79" t="s">
+        <v>145</v>
+      </c>
+      <c r="D416" s="80">
+        <f>D415*D417</f>
+        <v>0.18042036859874927</v>
+      </c>
+      <c r="E416" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="417" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="C417" t="s">
+        <v>164</v>
+      </c>
+      <c r="D417">
+        <v>12</v>
+      </c>
+      <c r="E417" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="419" spans="3:11" ht="6.3" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C419" s="19"/>
+      <c r="D419" s="19"/>
+      <c r="E419" s="19"/>
+      <c r="F419" s="19"/>
+      <c r="G419" s="19"/>
+      <c r="H419" s="19"/>
+      <c r="I419" s="19"/>
+      <c r="J419" s="19"/>
+      <c r="K419" s="19"/>
+    </row>
+    <row r="425" spans="3:11" ht="15.65" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="C425" t="s">
+        <v>119</v>
+      </c>
+      <c r="D425" s="9"/>
+      <c r="F425" s="33"/>
+    </row>
+    <row r="426" spans="3:11" ht="21.95" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="C426" t="s">
+        <v>118</v>
+      </c>
+      <c r="D426" s="4">
+        <v>-91.7</v>
+      </c>
+      <c r="E426" t="s">
+        <v>166</v>
+      </c>
+      <c r="F426" s="72"/>
+    </row>
+    <row r="427" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="C427" t="s">
+        <v>117</v>
+      </c>
+      <c r="D427" s="84">
+        <v>7</v>
+      </c>
+      <c r="E427" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="428" spans="3:11" ht="15.65" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="C428" t="s">
+        <v>121</v>
+      </c>
+      <c r="D428" s="38">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="429" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="C429" s="77" t="s">
+        <v>165</v>
+      </c>
+      <c r="D429" s="78">
+        <v>0.01</v>
+      </c>
+    </row>
+    <row r="430" spans="3:11" ht="15.65" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="C430" s="79" t="s">
+        <v>145</v>
+      </c>
+      <c r="D430" s="80">
+        <f>D429*D431</f>
+        <v>0.12</v>
+      </c>
+      <c r="E430" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="431" spans="3:11" ht="15.65" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="C431" t="s">
+        <v>164</v>
+      </c>
+      <c r="D431">
+        <v>12</v>
+      </c>
+      <c r="E431" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="432" spans="3:11" ht="15.65" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="C432" s="75" t="s">
+        <v>103</v>
+      </c>
+      <c r="D432" s="76">
+        <f>EFFECT(D430,D431)</f>
+        <v>0.12682503013196977</v>
+      </c>
+      <c r="E432" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="434" spans="3:11" ht="8.15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C434" s="19"/>
+      <c r="D434" s="19"/>
+      <c r="E434" s="19"/>
+      <c r="F434" s="19"/>
+      <c r="G434" s="19"/>
+      <c r="H434" s="19"/>
+      <c r="I434" s="19"/>
+      <c r="J434" s="19"/>
+      <c r="K434" s="19"/>
+    </row>
+    <row r="447" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="C447" s="103" t="s">
+        <v>48</v>
+      </c>
+      <c r="D447" s="101">
+        <v>0.12</v>
+      </c>
+      <c r="E447" s="104">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="448" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="E448" s="104">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="449" spans="3:5" x14ac:dyDescent="0.3">
+      <c r="E449" s="104">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="450" spans="3:5" ht="15.65" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="E450" s="104">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="451" spans="3:5" ht="15.65" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="C451" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="D451" s="102">
+        <f>NPV(12%,E447:E450)</f>
+        <v>498.47394314868797</v>
+      </c>
     </row>
   </sheetData>
-  <mergeCells count="3">
+  <mergeCells count="4">
     <mergeCell ref="L237:L238"/>
     <mergeCell ref="D231:E231"/>
     <mergeCell ref="R219:T219"/>
+    <mergeCell ref="F329:H329"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -5481,7 +6464,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="15.05" x14ac:dyDescent="0.3"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
